--- a/sample_data/two_monomer_systems/pdb-5-070.xlsx
+++ b/sample_data/two_monomer_systems/pdb-5-070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/two_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C8E78-BCAC-9F4C-A7DE-C65A6798E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF56590-5E94-4F4F-A5DC-1C387455D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="5120" windowWidth="28800" windowHeight="16340" activeTab="2" xr2:uid="{1A8159B0-1418-4706-B131-3A705859A009}"/>
+    <workbookView xWindow="40620" yWindow="5760" windowWidth="28800" windowHeight="16280" xr2:uid="{1A8159B0-1418-4706-B131-3A705859A009}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -2820,424 +2820,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="0">
-                  <c:v>0.64848470004890479</c:v>
+                  <c:v>0.89628164074536765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63591854523890112</c:v>
+                  <c:v>0.77735590066718607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62534184589854236</c:v>
+                  <c:v>0.68718896815713471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61573079776641026</c:v>
+                  <c:v>0.61687720739570429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60501787300989651</c:v>
+                  <c:v>0.54661601160157935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5938893369300221</c:v>
+                  <c:v>0.48554848454190763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58432082122852669</c:v>
+                  <c:v>0.43745746732171531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57391769612085919</c:v>
+                  <c:v>0.39357081861369136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56363318729425782</c:v>
+                  <c:v>0.3546133935878677</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5540717402290638</c:v>
+                  <c:v>0.3220377606411714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54530156955801357</c:v>
+                  <c:v>0.29485653614005408</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5361645582621497</c:v>
+                  <c:v>0.269462224037543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52658690518388263</c:v>
+                  <c:v>0.24590354261391725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5180407732570036</c:v>
+                  <c:v>0.22572035053362738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50963156024167755</c:v>
+                  <c:v>0.20783123551611843</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50029705674487746</c:v>
+                  <c:v>0.19066975726886481</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49114668880746531</c:v>
+                  <c:v>0.17508122792809594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48162369186565002</c:v>
+                  <c:v>0.15931961639030492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47161147688345761</c:v>
+                  <c:v>0.14556420193774205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.46285861979839749</c:v>
+                  <c:v>0.13430200027139558</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.45514556865266187</c:v>
+                  <c:v>0.12440258722015522</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.44724178379431406</c:v>
+                  <c:v>0.11562562622386803</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.438778700718085</c:v>
+                  <c:v>0.10681322723961066</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43097730553860841</c:v>
+                  <c:v>9.930784911032034E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42311504008679857</c:v>
+                  <c:v>9.2238361408867819E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.41513967955972536</c:v>
+                  <c:v>8.5610145303694443E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40767479507782478</c:v>
+                  <c:v>7.9879950515605952E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.39848096238427833</c:v>
+                  <c:v>7.392860337270564E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.39191676009615439</c:v>
+                  <c:v>6.9121266952729729E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.38375000238994922</c:v>
+                  <c:v>6.4442140131741515E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.37628417168672695</c:v>
+                  <c:v>6.0220176678283575E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37008561575380372</c:v>
+                  <c:v>5.6438934086260523E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36193301579077514</c:v>
+                  <c:v>5.2678827145763732E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.35716598904446828</c:v>
+                  <c:v>4.9856233732219257E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.35034176366374487</c:v>
+                  <c:v>4.6844252100414929E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3443695088221348</c:v>
+                  <c:v>4.4258451536316551E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33807816844280197</c:v>
+                  <c:v>4.173299457121362E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3321446627672035</c:v>
+                  <c:v>3.9501988645649515E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32811307912097776</c:v>
+                  <c:v>3.7502266632824945E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32056821048960515</c:v>
+                  <c:v>3.5217501730191565E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.31598044238050055</c:v>
+                  <c:v>3.3469655445700262E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.30981221243750123</c:v>
+                  <c:v>3.1599016147138691E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.30264585055963406</c:v>
+                  <c:v>2.9630165736214149E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.29819940705549558</c:v>
+                  <c:v>2.814970724093506E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2939060652910675</c:v>
+                  <c:v>2.6776291490622859E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28818344921740496</c:v>
+                  <c:v>2.5503526074358719E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.28346903045535038</c:v>
+                  <c:v>2.4162383929329082E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.27775552618635407</c:v>
+                  <c:v>2.2763136137070858E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.27300632822312448</c:v>
+                  <c:v>2.1777071413937376E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26959603138030014</c:v>
+                  <c:v>2.0756748281392255E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26426563407107861</c:v>
+                  <c:v>1.9727988066403825E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.25698215642119621</c:v>
+                  <c:v>1.8393906268318626E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.25466775758822419</c:v>
+                  <c:v>1.7734093855004691E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.24958323297866813</c:v>
+                  <c:v>1.6931941659655128E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.24475464268541505</c:v>
+                  <c:v>1.6094896542997957E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.24013470688125968</c:v>
+                  <c:v>1.524076243645023E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.23383094028371193</c:v>
+                  <c:v>1.4461345880937271E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.23234777077941007</c:v>
+                  <c:v>1.4043013316557967E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.22931241209787906</c:v>
+                  <c:v>1.345653843306297E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.22840494568798292</c:v>
+                  <c:v>1.3245184750257542E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22451355144002447</c:v>
+                  <c:v>1.2619300418916847E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.21906578067864585</c:v>
+                  <c:v>1.1895343248326586E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.21660031255398385</c:v>
+                  <c:v>1.1513316596165434E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.21030891765625961</c:v>
+                  <c:v>1.0907670322154282E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.20854643483257626</c:v>
+                  <c:v>1.0502854201360403E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.19913001683980355</c:v>
+                  <c:v>9.663475367812693E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.20505699809866351</c:v>
+                  <c:v>9.89783853286531E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.19817270495143535</c:v>
+                  <c:v>9.2618415072496293E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.19600340444152925</c:v>
+                  <c:v>8.9507278407171265E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.18620084165391795</c:v>
+                  <c:v>8.2964607626438841E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.18864575753931817</c:v>
+                  <c:v>8.2254795257604759E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.18986448938245015</c:v>
+                  <c:v>8.1872101119382645E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17712389981639592</c:v>
+                  <c:v>7.3462485920255168E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.17648710680223295</c:v>
+                  <c:v>7.164147772428053E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.17309776521745943</c:v>
+                  <c:v>6.831761429575021E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.17498045365129644</c:v>
+                  <c:v>6.7880686412275532E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.16891744219876573</c:v>
+                  <c:v>6.4151685256210204E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.16676770542132016</c:v>
+                  <c:v>6.2165130649989436E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.16451958378102605</c:v>
+                  <c:v>6.0308780660238469E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1572072192638006</c:v>
+                  <c:v>5.5732527811061805E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.15469330947715376</c:v>
+                  <c:v>5.3736364481105133E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.15159488862383791</c:v>
+                  <c:v>5.1678971202288454E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.15387396645067986</c:v>
+                  <c:v>5.1739880682447458E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.14376170548390393</c:v>
+                  <c:v>4.6974629806301261E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.14653984783061161</c:v>
+                  <c:v>4.7293722555946912E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13816869428886228</c:v>
+                  <c:v>4.3599946295188562E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.14168588703690654</c:v>
+                  <c:v>4.4155900274015026E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13518445894302075</c:v>
+                  <c:v>4.1069869075910058E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.14816221462632401</c:v>
+                  <c:v>4.4929868087618023E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.12903261539824903</c:v>
+                  <c:v>3.7295108040868584E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.13257807979274724</c:v>
+                  <c:v>3.7818908261882723E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.13208191177039244</c:v>
+                  <c:v>3.7881104795739586E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13492821448161954</c:v>
+                  <c:v>3.8068439985263166E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.11695928553084492</c:v>
+                  <c:v>3.132571512070009E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.12790375317622754</c:v>
+                  <c:v>3.4426510024928546E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.12067715777439461</c:v>
+                  <c:v>3.1513012515811899E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11575448840363803</c:v>
+                  <c:v>2.9644355852428157E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.11354819805377493</c:v>
+                  <c:v>2.8513558759298511E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.10943676849475861</c:v>
+                  <c:v>2.7003443859872373E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.10979476673245968</c:v>
+                  <c:v>2.6886878841600411E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.11278792239336155</c:v>
+                  <c:v>2.7369599205790919E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.10228797529015621</c:v>
+                  <c:v>2.4131605096780768E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.10471131859535997</c:v>
+                  <c:v>2.4180594444711593E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.1020903466071009</c:v>
+                  <c:v>2.3432332198847733E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.10781158482220013</c:v>
+                  <c:v>2.4290295730232344E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.10367829677439289</c:v>
+                  <c:v>2.2890840049409685E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.10104759977444777</c:v>
+                  <c:v>2.1942604159058462E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.022872936086837E-2</c:v>
+                  <c:v>1.9205998470609145E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.7488839201465075E-2</c:v>
+                  <c:v>2.065585557167481E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>8.2496454228191865E-2</c:v>
+                  <c:v>1.6767693250310256E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.7824271382129037E-2</c:v>
+                  <c:v>1.5443448629824336E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9.2863530295734617E-2</c:v>
+                  <c:v>1.8715553251151939E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.9985285186960658E-2</c:v>
+                  <c:v>1.5584197820262373E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>8.6097632809135807E-2</c:v>
+                  <c:v>1.6854428830330936E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.3786585940575406E-2</c:v>
+                  <c:v>1.6104965162658884E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>8.7908131960686198E-2</c:v>
+                  <c:v>1.6554543873082053E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8.10361534780943E-2</c:v>
+                  <c:v>1.503227121185268E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.315941458682434E-2</c:v>
+                  <c:v>1.4922041542301452E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8.9786194300782524E-2</c:v>
+                  <c:v>1.6315647497150629E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.7679311196926171E-2</c:v>
+                  <c:v>1.3677077763971481E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.007276808385054E-2</c:v>
+                  <c:v>1.4077997021166527E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.0676339955264095E-2</c:v>
+                  <c:v>1.1983232284881794E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6.3695720910292672E-2</c:v>
+                  <c:v>1.0801817329496959E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.2032844947552133E-2</c:v>
+                  <c:v>1.1977360283354404E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7.0842585380409315E-2</c:v>
+                  <c:v>1.168151180856567E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>7.6341811716130567E-2</c:v>
+                  <c:v>1.2524771856367582E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6.9552209114437352E-2</c:v>
+                  <c:v>1.1252866640434078E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6.2563892247486944E-2</c:v>
+                  <c:v>9.9371221264073781E-4</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.504747526860581E-2</c:v>
+                  <c:v>8.4301887095812567E-4</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.3496535980441039E-2</c:v>
+                  <c:v>8.0622300545769854E-4</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5.936283963583739E-2</c:v>
+                  <c:v>9.0126670969547173E-4</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.8052933621224457E-2</c:v>
+                  <c:v>1.0378059074015566E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.7029354681344114E-2</c:v>
+                  <c:v>1.1723765487646172E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.7939196843630867E-2</c:v>
+                  <c:v>1.0175123540600312E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.3027544442832368E-2</c:v>
+                  <c:v>1.0890007641538959E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.100761184818255E-2</c:v>
+                  <c:v>1.031547660649714E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.9192262863297089E-2</c:v>
+                  <c:v>8.3355409235501266E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.3580667817872458E-2</c:v>
+                  <c:v>9.0019996148060072E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.3055911767232585E-2</c:v>
+                  <c:v>5.8614784836813624E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.861927525858456E-2</c:v>
+                  <c:v>6.7076086945283987E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,424 +3713,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="0">
-                  <c:v>0.35151529995109509</c:v>
+                  <c:v>0.93517191875698635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36408145476109882</c:v>
+                  <c:v>0.85668157226879327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3746581541014577</c:v>
+                  <c:v>0.79249464245093326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38426920223358974</c:v>
+                  <c:v>0.74104722319318672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3949821269901036</c:v>
+                  <c:v>0.68690083912510747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40611066306997784</c:v>
+                  <c:v>0.63910751778227548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41567917877147326</c:v>
+                  <c:v>0.59902535053855321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42608230387914076</c:v>
+                  <c:v>0.5624309737011598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43636681270574207</c:v>
+                  <c:v>0.52846076545473164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44592825977093625</c:v>
+                  <c:v>0.49889396671377939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45469843044198638</c:v>
+                  <c:v>0.47326013673627038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46383544173785024</c:v>
+                  <c:v>0.44871044134455473</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47341309481611732</c:v>
+                  <c:v>0.42553712495985374</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48195922674299629</c:v>
+                  <c:v>0.40422161251106947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49036843975832251</c:v>
+                  <c:v>0.38492797390888683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49970294325512249</c:v>
+                  <c:v>0.36657954802781473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50885331119253474</c:v>
+                  <c:v>0.34915914912719015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51837630813434987</c:v>
+                  <c:v>0.33007224886047848</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52838852311654227</c:v>
+                  <c:v>0.31392510813326169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5371413802016024</c:v>
+                  <c:v>0.30000272117866217</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54485443134733813</c:v>
+                  <c:v>0.28665666201354867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55275821620568599</c:v>
+                  <c:v>0.27507390434539375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.561221299281915</c:v>
+                  <c:v>0.26297599212933509</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.56902269446139164</c:v>
+                  <c:v>0.25238365186355072</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.57688495991320143</c:v>
+                  <c:v>0.24207212961422928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58486032044027458</c:v>
+                  <c:v>0.23215904279914409</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59232520492217511</c:v>
+                  <c:v>0.22340176355414654</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60151903761572167</c:v>
+                  <c:v>0.21481111994220159</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.60808323990384561</c:v>
+                  <c:v>0.20643500653974498</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.61624999761005073</c:v>
+                  <c:v>0.19919615565128743</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.62371582831327321</c:v>
+                  <c:v>0.19213889947041132</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62991438424619628</c:v>
+                  <c:v>0.18491007781337304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.63806698420922481</c:v>
+                  <c:v>0.17876258538997608</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.64283401095553172</c:v>
+                  <c:v>0.17272320000161223</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.64965823633625519</c:v>
+                  <c:v>0.16720597961446557</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6556304911778652</c:v>
+                  <c:v>0.16219338035709913</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.66192183155719797</c:v>
+                  <c:v>0.15727930645480287</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.66785533723279655</c:v>
+                  <c:v>0.15288910590636012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.67188692087902224</c:v>
+                  <c:v>0.1478198033250788</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.67943178951039485</c:v>
+                  <c:v>0.14367672264695089</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6840195576194994</c:v>
+                  <c:v>0.13946396760929461</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.69018778756249866</c:v>
+                  <c:v>0.13550170388859345</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.697354149440366</c:v>
+                  <c:v>0.13141810618777386</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.70180059294450448</c:v>
+                  <c:v>0.12752146576579321</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.70609393470893245</c:v>
+                  <c:v>0.12382456692186523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.71181655078259498</c:v>
+                  <c:v>0.12125558028580889</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.71653096954464957</c:v>
+                  <c:v>0.11756325086421397</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.72224447381364587</c:v>
+                  <c:v>0.11393471574463847</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.72699367177687557</c:v>
+                  <c:v>0.11162458313589352</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73040396861969981</c:v>
+                  <c:v>0.10824588768369205</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.73573436592892127</c:v>
+                  <c:v>0.10572205767500926</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.74301784357880385</c:v>
+                  <c:v>0.10236999961551958</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.74533224241177576</c:v>
+                  <c:v>9.9905041688271787E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.75041676702133187</c:v>
+                  <c:v>9.799329134399011E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.75524535731458498</c:v>
+                  <c:v>9.5597772562263802E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.75986529311874029</c:v>
+                  <c:v>9.2830529321777558E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.76616905971628801</c:v>
+                  <c:v>9.1208183314211488E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.76765222922058995</c:v>
+                  <c:v>8.930767252710517E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.770687587902121</c:v>
+                  <c:v>8.7053576100650593E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.77159505431201714</c:v>
+                  <c:v>8.6128009505112485E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.77548644855997562</c:v>
+                  <c:v>8.3901435403641839E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7809342193213541</c:v>
+                  <c:v>8.1624276798487452E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.78339968744601607</c:v>
+                  <c:v>8.0154372835117366E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7896910823437403</c:v>
+                  <c:v>7.8837711083722908E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.79145356516742371</c:v>
+                  <c:v>7.6724216976170503E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.80086998316019642</c:v>
+                  <c:v>7.481024692235777E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.79494300190133649</c:v>
+                  <c:v>7.3859135172140059E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.80182729504856465</c:v>
+                  <c:v>7.2133466221114245E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.80399659555847081</c:v>
+                  <c:v>7.0672654702002957E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.81379915834608207</c:v>
+                  <c:v>6.979606178488254E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.81135424246068177</c:v>
+                  <c:v>6.8096870313089641E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.81013551061754974</c:v>
+                  <c:v>6.724381080805554E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.82287610018360413</c:v>
+                  <c:v>6.5693947903938718E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.82351289319776699</c:v>
+                  <c:v>6.4346423485758475E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.82690223478254066</c:v>
+                  <c:v>6.2819988848112809E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.82501954634870356</c:v>
+                  <c:v>6.160605274037495E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.83108255780123441</c:v>
+                  <c:v>6.0754744537689753E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.83323229457867987</c:v>
+                  <c:v>5.9786544034714818E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.83548041621897395</c:v>
+                  <c:v>5.8952425536100847E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.84279278073619934</c:v>
+                  <c:v>5.751213905339516E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.84530669052284624</c:v>
+                  <c:v>5.6521478651891291E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.84840511137616204</c:v>
+                  <c:v>5.5671770816030385E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.84612603354932014</c:v>
+                  <c:v>5.4764331391331016E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.85623829451609612</c:v>
+                  <c:v>5.3853911899505294E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.85346015216938831</c:v>
+                  <c:v>5.3019236585057035E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.86183130571113775</c:v>
+                  <c:v>5.2348112212374717E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.85831411296309346</c:v>
+                  <c:v>5.1488573775361875E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.86481554105697922</c:v>
+                  <c:v>5.0573439951080344E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.85183778537367605</c:v>
+                  <c:v>4.9722967666801621E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.87096738460175094</c:v>
+                  <c:v>4.8457021929562964E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.86742192020725273</c:v>
+                  <c:v>4.7628852032198285E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.86791808822960759</c:v>
+                  <c:v>4.7913785917728546E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.86507178551838038</c:v>
+                  <c:v>4.6980421909452175E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.883040714469155</c:v>
+                  <c:v>4.5524949610482493E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8720962468237724</c:v>
+                  <c:v>4.5183158388847552E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.87932284222560542</c:v>
+                  <c:v>4.4199327564284144E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.884245511596362</c:v>
+                  <c:v>4.3589260408895991E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.88645180194622497</c:v>
+                  <c:v>4.2847823215465361E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.89056323150524141</c:v>
+                  <c:v>4.2298319498121274E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.89020523326754031</c:v>
+                  <c:v>4.1961533479860376E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.88721207760663856</c:v>
+                  <c:v>4.144152650754232E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.89771202470984379</c:v>
+                  <c:v>4.0766284238631621E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.89528868140464002</c:v>
+                  <c:v>3.9795951857617112E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.89790965339289919</c:v>
+                  <c:v>3.9670341242597315E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.89218841517780001</c:v>
+                  <c:v>3.8692466038649648E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.89632170322560711</c:v>
+                  <c:v>3.8092567636674395E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.89895240022555234</c:v>
+                  <c:v>3.7575201752750878E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.90977127063913155</c:v>
+                  <c:v>3.7275778717005922E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.90251116079853499</c:v>
+                  <c:v>3.6808093926286367E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.91750354577180815</c:v>
+                  <c:v>3.5896181073992353E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.92217572861787089</c:v>
+                  <c:v>3.5224543234053406E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.90713646970426542</c:v>
+                  <c:v>3.5191077585541748E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.9200147148130392</c:v>
+                  <c:v>3.4504170127801978E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.91390236719086415</c:v>
+                  <c:v>3.4436982427903912E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.91621341405942469</c:v>
+                  <c:v>3.3898805822366006E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.91209186803931375</c:v>
+                  <c:v>3.3062006704373433E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.91896384652190566</c:v>
+                  <c:v>3.281305515358194E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.9168405854131757</c:v>
+                  <c:v>3.1667451152898665E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.9102138056992175</c:v>
+                  <c:v>3.1837622317240223E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.92232068880307383</c:v>
+                  <c:v>3.125880411886553E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.91992723191614945</c:v>
+                  <c:v>3.1132354006247309E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.92932366004473588</c:v>
+                  <c:v>3.0329788314191489E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.93630427908970726</c:v>
+                  <c:v>3.0563707706221101E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.92796715505244798</c:v>
+                  <c:v>2.9700626401538907E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.92915741461959067</c:v>
+                  <c:v>2.9491468961305466E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.92365818828386936</c:v>
+                  <c:v>2.9168970708769865E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.93044779088556262</c:v>
+                  <c:v>2.8976552294614013E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.93743610775251307</c:v>
+                  <c:v>2.8660317921192845E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.94495252473139413</c:v>
+                  <c:v>2.7855588574314805E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.94650346401955887</c:v>
+                  <c:v>2.745707000950301E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.94063716036416267</c:v>
+                  <c:v>2.7489272874435575E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.93194706637877556</c:v>
+                  <c:v>2.7356654828539672E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.9229706453186558</c:v>
+                  <c:v>2.703965897413594E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.93206080315636908</c:v>
+                  <c:v>2.6869895980786207E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.92697245555716767</c:v>
+                  <c:v>2.6607910713490224E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.92899238815181751</c:v>
+                  <c:v>2.5977598827774274E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.94080773713670296</c:v>
+                  <c:v>2.5501879166991297E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.93641933218212758</c:v>
+                  <c:v>2.5520356335884859E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.95694408823276733</c:v>
+                  <c:v>2.5076297103154104E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.95138072474141533</c:v>
+                  <c:v>2.5264810473467913E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EF210D-3390-BB41-8A7E-0DDD93F15583}">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5975,10 +5975,10 @@
         <v>1.3151406393638654E-2</v>
       </c>
       <c r="B2">
-        <v>0.65555351607262868</v>
+        <v>0.98302255190569487</v>
       </c>
       <c r="C2">
-        <v>0.34444648392737132</v>
+        <v>0.99421324437382885</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5986,10 +5986,10 @@
         <v>9.0421968003897124E-2</v>
       </c>
       <c r="B3">
-        <v>0.64848470004890479</v>
+        <v>0.89628164074536765</v>
       </c>
       <c r="C3">
-        <v>0.35151529995109509</v>
+        <v>0.93517191875698635</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5997,10 +5997,10 @@
         <v>0.19552304955458433</v>
       </c>
       <c r="B4">
-        <v>0.63591854523890112</v>
+        <v>0.77735590066718607</v>
       </c>
       <c r="C4">
-        <v>0.36408145476109882</v>
+        <v>0.85668157226879327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6008,10 +6008,10 @@
         <v>0.27680754927803219</v>
       </c>
       <c r="B5">
-        <v>0.62534184589854236</v>
+        <v>0.68718896815713471</v>
       </c>
       <c r="C5">
-        <v>0.3746581541014577</v>
+        <v>0.79249464245093326</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6019,10 +6019,10 @@
         <v>0.34066968617085647</v>
       </c>
       <c r="B6">
-        <v>0.61573079776641026</v>
+        <v>0.61687720739570429</v>
       </c>
       <c r="C6">
-        <v>0.38426920223358974</v>
+        <v>0.74104722319318672</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6030,10 +6030,10 @@
         <v>0.40542130855495284</v>
       </c>
       <c r="B7">
-        <v>0.60501787300989651</v>
+        <v>0.54661601160157935</v>
       </c>
       <c r="C7">
-        <v>0.3949821269901036</v>
+        <v>0.68690083912510747</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6041,10 +6041,10 @@
         <v>0.46195045117054523</v>
       </c>
       <c r="B8">
-        <v>0.5938893369300221</v>
+        <v>0.48554848454190763</v>
       </c>
       <c r="C8">
-        <v>0.40611066306997784</v>
+        <v>0.63910751778227548</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6052,10 +6052,10 @@
         <v>0.50730328270011915</v>
       </c>
       <c r="B9">
-        <v>0.58432082122852669</v>
+        <v>0.43745746732171531</v>
       </c>
       <c r="C9">
-        <v>0.41567917877147326</v>
+        <v>0.59902535053855321</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6063,10 +6063,10 @@
         <v>0.54869674018257086</v>
       </c>
       <c r="B10">
-        <v>0.57391769612085919</v>
+        <v>0.39357081861369136</v>
       </c>
       <c r="C10">
-        <v>0.42608230387914076</v>
+        <v>0.5624309737011598</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6074,10 +6074,10 @@
         <v>0.58594906077249242</v>
       </c>
       <c r="B11">
-        <v>0.56363318729425782</v>
+        <v>0.3546133935878677</v>
       </c>
       <c r="C11">
-        <v>0.43636681270574207</v>
+        <v>0.52846076545473164</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6085,10 +6085,10 @@
         <v>0.61749598837549824</v>
       </c>
       <c r="B12">
-        <v>0.5540717402290638</v>
+        <v>0.3220377606411714</v>
       </c>
       <c r="C12">
-        <v>0.44592825977093625</v>
+        <v>0.49889396671377939</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6096,10 +6096,10 @@
         <v>0.64414816643989437</v>
       </c>
       <c r="B13">
-        <v>0.54530156955801357</v>
+        <v>0.29485653614005408</v>
       </c>
       <c r="C13">
-        <v>0.45469843044198638</v>
+        <v>0.47326013673627038</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6107,10 +6107,10 @@
         <v>0.66925370831967035</v>
       </c>
       <c r="B14">
-        <v>0.5361645582621497</v>
+        <v>0.269462224037543</v>
       </c>
       <c r="C14">
-        <v>0.46383544173785024</v>
+        <v>0.44871044134455473</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6118,10 +6118,10 @@
         <v>0.69268063536678159</v>
       </c>
       <c r="B15">
-        <v>0.52658690518388263</v>
+        <v>0.24590354261391725</v>
       </c>
       <c r="C15">
-        <v>0.47341309481611732</v>
+        <v>0.42553712495985374</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6129,10 +6129,10 @@
         <v>0.71325096210926586</v>
       </c>
       <c r="B16">
-        <v>0.5180407732570036</v>
+        <v>0.22572035053362738</v>
       </c>
       <c r="C16">
-        <v>0.48195922674299629</v>
+        <v>0.40422161251106947</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6140,10 +6140,10 @@
         <v>0.73162027670511498</v>
       </c>
       <c r="B17">
-        <v>0.50963156024167755</v>
+        <v>0.20783123551611843</v>
       </c>
       <c r="C17">
-        <v>0.49036843975832251</v>
+        <v>0.38492797390888683</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6151,10 +6151,10 @@
         <v>0.74918756640294926</v>
       </c>
       <c r="B18">
-        <v>0.50029705674487746</v>
+        <v>0.19066975726886481</v>
       </c>
       <c r="C18">
-        <v>0.49970294325512249</v>
+        <v>0.36657954802781473</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6162,10 +6162,10 @@
         <v>0.76540240277039662</v>
       </c>
       <c r="B19">
-        <v>0.49114668880746531</v>
+        <v>0.17508122792809594</v>
       </c>
       <c r="C19">
-        <v>0.50885331119253474</v>
+        <v>0.34915914912719015</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6173,10 +6173,10 @@
         <v>0.78230091386823131</v>
       </c>
       <c r="B20">
-        <v>0.48162369186565002</v>
+        <v>0.15931961639030492</v>
       </c>
       <c r="C20">
-        <v>0.51837630813434987</v>
+        <v>0.33007224886047848</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6184,10 +6184,10 @@
         <v>0.79687404755393931</v>
       </c>
       <c r="B21">
-        <v>0.47161147688345761</v>
+        <v>0.14556420193774205</v>
       </c>
       <c r="C21">
-        <v>0.52838852311654227</v>
+        <v>0.31392510813326169</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6195,10 +6195,10 @@
         <v>0.80904575324546901</v>
       </c>
       <c r="B22">
-        <v>0.46285861979839749</v>
+        <v>0.13430200027139558</v>
       </c>
       <c r="C22">
-        <v>0.5371413802016024</v>
+        <v>0.30000272117866217</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6206,10 +6206,10 @@
         <v>0.82012355733878917</v>
       </c>
       <c r="B23">
-        <v>0.45514556865266187</v>
+        <v>0.12440258722015522</v>
       </c>
       <c r="C23">
-        <v>0.54485443134733813</v>
+        <v>0.28665666201354867</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6217,10 +6217,10 @@
         <v>0.82985980616294996</v>
       </c>
       <c r="B24">
-        <v>0.44724178379431406</v>
+        <v>0.11562562622386803</v>
       </c>
       <c r="C24">
-        <v>0.55275821620568599</v>
+        <v>0.27507390434539375</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6228,10 +6228,10 @@
         <v>0.83979550566402139</v>
       </c>
       <c r="B25">
-        <v>0.438778700718085</v>
+        <v>0.10681322723961066</v>
       </c>
       <c r="C25">
-        <v>0.561221299281915</v>
+        <v>0.26297599212933509</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6239,10 +6239,10 @@
         <v>0.84835630068518297</v>
       </c>
       <c r="B26">
-        <v>0.43097730553860841</v>
+        <v>9.930784911032034E-2</v>
       </c>
       <c r="C26">
-        <v>0.56902269446139164</v>
+        <v>0.25238365186355072</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6250,10 +6250,10 @@
         <v>0.85653422375919797</v>
       </c>
       <c r="B27">
-        <v>0.42311504008679857</v>
+        <v>9.2238361408867819E-2</v>
       </c>
       <c r="C27">
-        <v>0.57688495991320143</v>
+        <v>0.24207212961422928</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6261,10 +6261,10 @@
         <v>0.86428552070616982</v>
       </c>
       <c r="B28">
-        <v>0.41513967955972536</v>
+        <v>8.5610145303694443E-2</v>
       </c>
       <c r="C28">
-        <v>0.58486032044027458</v>
+        <v>0.23215904279914409</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6272,10 +6272,10 @@
         <v>0.87105066050740676</v>
       </c>
       <c r="B29">
-        <v>0.40767479507782478</v>
+        <v>7.9879950515605952E-2</v>
       </c>
       <c r="C29">
-        <v>0.59232520492217511</v>
+        <v>0.22340176355414654</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6283,10 +6283,10 @@
         <v>0.87790436989283505</v>
       </c>
       <c r="B30">
-        <v>0.39848096238427833</v>
+        <v>7.392860337270564E-2</v>
       </c>
       <c r="C30">
-        <v>0.60151903761572167</v>
+        <v>0.21481111994220159</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6294,10 +6294,10 @@
         <v>0.8839318532871141</v>
       </c>
       <c r="B31">
-        <v>0.39191676009615439</v>
+        <v>6.9121266952729729E-2</v>
       </c>
       <c r="C31">
-        <v>0.60808323990384561</v>
+        <v>0.20643500653974498</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6305,10 +6305,10 @@
         <v>0.88948613694510992</v>
       </c>
       <c r="B32">
-        <v>0.38375000238994922</v>
+        <v>6.4442140131741515E-2</v>
       </c>
       <c r="C32">
-        <v>0.61624999761005073</v>
+        <v>0.19919615565128743</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6316,10 +6316,10 @@
         <v>0.89467747278008836</v>
       </c>
       <c r="B33">
-        <v>0.37628417168672695</v>
+        <v>6.0220176678283575E-2</v>
       </c>
       <c r="C33">
-        <v>0.62371582831327321</v>
+        <v>0.19213889947041132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6327,10 +6327,10 @@
         <v>0.89963742538551339</v>
       </c>
       <c r="B34">
-        <v>0.37008561575380372</v>
+        <v>5.6438934086260523E-2</v>
       </c>
       <c r="C34">
-        <v>0.62991438424619628</v>
+        <v>0.18491007781337304</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6338,10 +6338,10 @@
         <v>0.90421376746419779</v>
       </c>
       <c r="B35">
-        <v>0.36193301579077514</v>
+        <v>5.2678827145763732E-2</v>
       </c>
       <c r="C35">
-        <v>0.63806698420922481</v>
+        <v>0.17876258538997608</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6349,10 +6349,10 @@
         <v>0.90813616594101909</v>
       </c>
       <c r="B36">
-        <v>0.35716598904446828</v>
+        <v>4.9856233732219257E-2</v>
       </c>
       <c r="C36">
-        <v>0.64283401095553172</v>
+        <v>0.17272320000161223</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6360,10 +6360,10 @@
         <v>0.91200467615453185</v>
       </c>
       <c r="B37">
-        <v>0.35034176366374487</v>
+        <v>4.6844252100414929E-2</v>
       </c>
       <c r="C37">
-        <v>0.64965823633625519</v>
+        <v>0.16720597961446557</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6371,10 +6371,10 @@
         <v>0.91542018703602168</v>
       </c>
       <c r="B38">
-        <v>0.3443695088221348</v>
+        <v>4.4258451536316551E-2</v>
       </c>
       <c r="C38">
-        <v>0.6556304911778652</v>
+        <v>0.16219338035709913</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6382,10 +6382,10 @@
         <v>0.91876230016736671</v>
       </c>
       <c r="B39">
-        <v>0.33807816844280197</v>
+        <v>4.173299457121362E-2</v>
       </c>
       <c r="C39">
-        <v>0.66192183155719797</v>
+        <v>0.15727930645480287</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6393,10 +6393,10 @@
         <v>0.92173152391908519</v>
       </c>
       <c r="B40">
-        <v>0.3321446627672035</v>
+        <v>3.9501988645649515E-2</v>
       </c>
       <c r="C40">
-        <v>0.66785533723279655</v>
+        <v>0.15288910590636012</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6404,10 +6404,10 @@
         <v>0.92478072015273338</v>
       </c>
       <c r="B41">
-        <v>0.32811307912097776</v>
+        <v>3.7502266632824945E-2</v>
       </c>
       <c r="C41">
-        <v>0.67188692087902224</v>
+        <v>0.1478198033250788</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6415,10 +6415,10 @@
         <v>0.9277008339107029</v>
       </c>
       <c r="B42">
-        <v>0.32056821048960515</v>
+        <v>3.5217501730191565E-2</v>
       </c>
       <c r="C42">
-        <v>0.67943178951039485</v>
+        <v>0.14367672264695089</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6426,10 +6426,10 @@
         <v>0.93029142015117117</v>
       </c>
       <c r="B43">
-        <v>0.31598044238050055</v>
+        <v>3.3469655445700262E-2</v>
       </c>
       <c r="C43">
-        <v>0.6840195576194994</v>
+        <v>0.13946396760929461</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6437,10 +6437,10 @@
         <v>0.93287717536271364</v>
       </c>
       <c r="B44">
-        <v>0.30981221243750123</v>
+        <v>3.1599016147138691E-2</v>
       </c>
       <c r="C44">
-        <v>0.69018778756249866</v>
+        <v>0.13550170388859345</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6448,10 +6448,10 @@
         <v>0.93556904727928225</v>
       </c>
       <c r="B45">
-        <v>0.30264585055963406</v>
+        <v>2.9630165736214149E-2</v>
       </c>
       <c r="C45">
-        <v>0.697354149440366</v>
+        <v>0.13141810618777386</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6459,10 +6459,10 @@
         <v>0.93787558627264322</v>
       </c>
       <c r="B46">
-        <v>0.29819940705549558</v>
+        <v>2.814970724093506E-2</v>
       </c>
       <c r="C46">
-        <v>0.70180059294450448</v>
+        <v>0.12752146576579321</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6470,10 +6470,10 @@
         <v>0.94004338925433373</v>
       </c>
       <c r="B47">
-        <v>0.2939060652910675</v>
+        <v>2.6776291490622859E-2</v>
       </c>
       <c r="C47">
-        <v>0.70609393470893245</v>
+        <v>0.12382456692186523</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6481,10 +6481,10 @@
         <v>0.94175932621287162</v>
       </c>
       <c r="B48">
-        <v>0.28818344921740496</v>
+        <v>2.5503526074358719E-2</v>
       </c>
       <c r="C48">
-        <v>0.71181655078259498</v>
+        <v>0.12125558028580889</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6492,10 +6492,10 @@
         <v>0.94390432751065967</v>
       </c>
       <c r="B49">
-        <v>0.28346903045535038</v>
+        <v>2.4162383929329082E-2</v>
       </c>
       <c r="C49">
-        <v>0.71653096954464957</v>
+        <v>0.11756325086421397</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6503,10 +6503,10 @@
         <v>0.94606575747362553</v>
       </c>
       <c r="B50">
-        <v>0.27775552618635407</v>
+        <v>2.2763136137070858E-2</v>
       </c>
       <c r="C50">
-        <v>0.72224447381364587</v>
+        <v>0.11393471574463847</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6514,10 +6514,10 @@
         <v>0.94750451437459238</v>
       </c>
       <c r="B51">
-        <v>0.27300632822312448</v>
+        <v>2.1777071413937376E-2</v>
       </c>
       <c r="C51">
-        <v>0.72699367177687557</v>
+        <v>0.11162458313589352</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6525,10 +6525,10 @@
         <v>0.94933115319013894</v>
       </c>
       <c r="B52">
-        <v>0.26959603138030014</v>
+        <v>2.0756748281392255E-2</v>
       </c>
       <c r="C52">
-        <v>0.73040396861969981</v>
+        <v>0.10824588768369205</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6536,10 +6536,10 @@
         <v>0.95087107027878548</v>
       </c>
       <c r="B53">
-        <v>0.26426563407107861</v>
+        <v>1.9727988066403825E-2</v>
       </c>
       <c r="C53">
-        <v>0.73573436592892127</v>
+        <v>0.10572205767500926</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6547,10 +6547,10 @@
         <v>0.95289508805260004</v>
       </c>
       <c r="B54">
-        <v>0.25698215642119621</v>
+        <v>1.8393906268318626E-2</v>
       </c>
       <c r="C54">
-        <v>0.74301784357880385</v>
+        <v>0.10236999961551958</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6558,10 +6558,10 @@
         <v>0.95417207067515242</v>
       </c>
       <c r="B55">
-        <v>0.25466775758822419</v>
+        <v>1.7734093855004691E-2</v>
       </c>
       <c r="C55">
-        <v>0.74533224241177576</v>
+        <v>9.9905041688271787E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6569,10 +6569,10 @@
         <v>0.95535358891964373</v>
       </c>
       <c r="B56">
-        <v>0.24958323297866813</v>
+        <v>1.6931941659655128E-2</v>
       </c>
       <c r="C56">
-        <v>0.75041676702133187</v>
+        <v>9.799329134399011E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6580,10 +6580,10 @@
         <v>0.95672346837599209</v>
       </c>
       <c r="B57">
-        <v>0.24475464268541505</v>
+        <v>1.6094896542997957E-2</v>
       </c>
       <c r="C57">
-        <v>0.75524535731458498</v>
+        <v>9.5597772562263802E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6591,10 +6591,10 @@
         <v>0.95823168491266797</v>
       </c>
       <c r="B58">
-        <v>0.24013470688125968</v>
+        <v>1.524076243645023E-2</v>
       </c>
       <c r="C58">
-        <v>0.75986529311874029</v>
+        <v>9.2830529321777558E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6602,10 +6602,10 @@
         <v>0.95929929482560361</v>
       </c>
       <c r="B59">
-        <v>0.23383094028371193</v>
+        <v>1.4461345880937271E-2</v>
       </c>
       <c r="C59">
-        <v>0.76616905971628801</v>
+        <v>9.1208183314211488E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6613,10 +6613,10 @@
         <v>0.96022437670010119</v>
       </c>
       <c r="B60">
-        <v>0.23234777077941007</v>
+        <v>1.4043013316557967E-2</v>
       </c>
       <c r="C60">
-        <v>0.76765222922058995</v>
+        <v>8.930767252710517E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6624,10 +6624,10 @@
         <v>0.96138100303601626</v>
       </c>
       <c r="B61">
-        <v>0.22931241209787906</v>
+        <v>1.345653843306297E-2</v>
       </c>
       <c r="C61">
-        <v>0.770687587902121</v>
+        <v>8.7053576100650593E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6635,10 +6635,10 @@
         <v>0.96183654253619189</v>
       </c>
       <c r="B62">
-        <v>0.22840494568798292</v>
+        <v>1.3245184750257542E-2</v>
       </c>
       <c r="C62">
-        <v>0.77159505431201714</v>
+        <v>8.6128009505112485E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6646,10 +6646,10 @@
         <v>0.96300969468208353</v>
       </c>
       <c r="B63">
-        <v>0.22451355144002447</v>
+        <v>1.2619300418916847E-2</v>
       </c>
       <c r="C63">
-        <v>0.77548644855997562</v>
+        <v>8.3901435403641839E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6657,10 +6657,10 @@
         <v>0.96426468364316387</v>
       </c>
       <c r="B64">
-        <v>0.21906578067864585</v>
+        <v>1.1895343248326586E-2</v>
       </c>
       <c r="C64">
-        <v>0.7809342193213541</v>
+        <v>8.1624276798487452E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6668,10 +6668,10 @@
         <v>0.96501865009884891</v>
       </c>
       <c r="B65">
-        <v>0.21660031255398385</v>
+        <v>1.1513316596165434E-2</v>
       </c>
       <c r="C65">
-        <v>0.78339968744601607</v>
+        <v>8.0154372835117366E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6679,10 +6679,10 @@
         <v>0.96586738900310032</v>
       </c>
       <c r="B66">
-        <v>0.21030891765625961</v>
+        <v>1.0907670322154282E-2</v>
       </c>
       <c r="C66">
-        <v>0.7896910823437403</v>
+        <v>7.8837711083722908E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6690,10 +6690,10 @@
         <v>0.96685639356879738</v>
       </c>
       <c r="B67">
-        <v>0.20854643483257626</v>
+        <v>1.0502854201360403E-2</v>
       </c>
       <c r="C67">
-        <v>0.79145356516742371</v>
+        <v>7.6724216976170503E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6701,10 +6701,10 @@
         <v>0.96806316975792528</v>
       </c>
       <c r="B68">
-        <v>0.19913001683980355</v>
+        <v>9.663475367812693E-3</v>
       </c>
       <c r="C68">
-        <v>0.80086998316019642</v>
+        <v>7.481024692235777E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6712,10 +6712,10 @@
         <v>0.96823411452835872</v>
       </c>
       <c r="B69">
-        <v>0.20505699809866351</v>
+        <v>9.89783853286531E-3</v>
       </c>
       <c r="C69">
-        <v>0.79494300190133649</v>
+        <v>7.3859135172140059E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6723,10 +6723,10 @@
         <v>0.96924266492710442</v>
       </c>
       <c r="B70">
-        <v>0.19817270495143535</v>
+        <v>9.2618415072496293E-3</v>
       </c>
       <c r="C70">
-        <v>0.80182729504856465</v>
+        <v>7.2133466221114245E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6734,10 +6734,10 @@
         <v>0.96994685453059604</v>
       </c>
       <c r="B71">
-        <v>0.19600340444152925</v>
+        <v>8.9507278407171265E-3</v>
       </c>
       <c r="C71">
-        <v>0.80399659555847081</v>
+        <v>7.0672654702002957E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6745,10 +6745,10 @@
         <v>0.97067713369940922</v>
       </c>
       <c r="B72">
-        <v>0.18620084165391795</v>
+        <v>8.2964607626438841E-3</v>
       </c>
       <c r="C72">
-        <v>0.81379915834608207</v>
+        <v>6.979606178488254E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6756,10 +6756,10 @@
         <v>0.9713047918599016</v>
       </c>
       <c r="B73">
-        <v>0.18864575753931817</v>
+        <v>8.2254795257604759E-3</v>
       </c>
       <c r="C73">
-        <v>0.81135424246068177</v>
+        <v>6.8096870313089641E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6767,10 +6767,10 @@
         <v>0.97162163392462486</v>
       </c>
       <c r="B74">
-        <v>0.18986448938245015</v>
+        <v>8.1872101119382645E-3</v>
       </c>
       <c r="C74">
-        <v>0.81013551061754974</v>
+        <v>6.724381080805554E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6778,10 +6778,10 @@
         <v>0.97270496527690931</v>
       </c>
       <c r="B75">
-        <v>0.17712389981639592</v>
+        <v>7.3462485920255168E-3</v>
       </c>
       <c r="C75">
-        <v>0.82287610018360413</v>
+        <v>6.5693947903938718E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6789,10 +6789,10 @@
         <v>0.97328551858725443</v>
       </c>
       <c r="B76">
-        <v>0.17648710680223295</v>
+        <v>7.164147772428053E-3</v>
       </c>
       <c r="C76">
-        <v>0.82351289319776699</v>
+        <v>6.4346423485758475E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6800,10 +6800,10 @@
         <v>0.9740261440611081</v>
       </c>
       <c r="B77">
-        <v>0.17309776521745943</v>
+        <v>6.831761429575021E-3</v>
       </c>
       <c r="C77">
-        <v>0.82690223478254066</v>
+        <v>6.2819988848112809E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6811,10 +6811,10 @@
         <v>0.97446993717860531</v>
       </c>
       <c r="B78">
-        <v>0.17498045365129644</v>
+        <v>6.7880686412275532E-3</v>
       </c>
       <c r="C78">
-        <v>0.82501954634870356</v>
+        <v>6.160605274037495E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6822,10 +6822,10 @@
         <v>0.97500640262283744</v>
       </c>
       <c r="B79">
-        <v>0.16891744219876573</v>
+        <v>6.4151685256210204E-3</v>
       </c>
       <c r="C79">
-        <v>0.83108255780123441</v>
+        <v>6.0754744537689753E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6833,10 +6833,10 @@
         <v>0.97546816167878825</v>
       </c>
       <c r="B80">
-        <v>0.16676770542132016</v>
+        <v>6.2165130649989436E-3</v>
       </c>
       <c r="C80">
-        <v>0.83323229457867987</v>
+        <v>5.9786544034714818E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -6844,10 +6844,10 @@
         <v>0.9758755099380354</v>
       </c>
       <c r="B81">
-        <v>0.16451958378102605</v>
+        <v>6.0308780660238469E-3</v>
       </c>
       <c r="C81">
-        <v>0.83548041621897395</v>
+        <v>5.8952425536100847E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -6855,10 +6855,10 @@
         <v>0.97666910216432601</v>
       </c>
       <c r="B82">
-        <v>0.1572072192638006</v>
+        <v>5.5732527811061805E-3</v>
       </c>
       <c r="C82">
-        <v>0.84279278073619934</v>
+        <v>5.751213905339516E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -6866,10 +6866,10 @@
         <v>0.97713917250200411</v>
       </c>
       <c r="B83">
-        <v>0.15469330947715376</v>
+        <v>5.3736364481105133E-3</v>
       </c>
       <c r="C83">
-        <v>0.84530669052284624</v>
+        <v>5.6521478651891291E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -6877,10 +6877,10 @@
         <v>0.97756508143712506</v>
       </c>
       <c r="B84">
-        <v>0.15159488862383791</v>
+        <v>5.1678971202288454E-3</v>
       </c>
       <c r="C84">
-        <v>0.84840511137616204</v>
+        <v>5.5671770816030385E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -6888,10 +6888,10 @@
         <v>0.97787132194766613</v>
       </c>
       <c r="B85">
-        <v>0.15387396645067986</v>
+        <v>5.1739880682447458E-3</v>
       </c>
       <c r="C85">
-        <v>0.84612603354932014</v>
+        <v>5.4764331391331016E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -6899,10 +6899,10 @@
         <v>0.97849619335870297</v>
       </c>
       <c r="B86">
-        <v>0.14376170548390393</v>
+        <v>4.6974629806301261E-3</v>
       </c>
       <c r="C86">
-        <v>0.85623829451609612</v>
+        <v>5.3853911899505294E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -6910,10 +6910,10 @@
         <v>0.97876056501413566</v>
       </c>
       <c r="B87">
-        <v>0.14653984783061161</v>
+        <v>4.7293722555946912E-3</v>
       </c>
       <c r="C87">
-        <v>0.85346015216938831</v>
+        <v>5.3019236585057035E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -6921,10 +6921,10 @@
         <v>0.97923310834142663</v>
       </c>
       <c r="B88">
-        <v>0.13816869428886228</v>
+        <v>4.3599946295188562E-3</v>
       </c>
       <c r="C88">
-        <v>0.86183130571113775</v>
+        <v>5.2348112212374717E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -6932,10 +6932,10 @@
         <v>0.97949039261778847</v>
       </c>
       <c r="B89">
-        <v>0.14168588703690654</v>
+        <v>4.4155900274015026E-3</v>
       </c>
       <c r="C89">
-        <v>0.85831411296309346</v>
+        <v>5.1488573775361875E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -6943,10 +6943,10 @@
         <v>0.98000636554734477</v>
       </c>
       <c r="B90">
-        <v>0.13518445894302075</v>
+        <v>4.1069869075910058E-3</v>
       </c>
       <c r="C90">
-        <v>0.86481554105697922</v>
+        <v>5.0573439951080344E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -6954,10 +6954,10 @@
         <v>0.98004310929288896</v>
       </c>
       <c r="B91">
-        <v>0.14816221462632401</v>
+        <v>4.4929868087618023E-3</v>
       </c>
       <c r="C91">
-        <v>0.85183778537367605</v>
+        <v>4.9722967666801621E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -6965,10 +6965,10 @@
         <v>0.980978377182256</v>
       </c>
       <c r="B92">
-        <v>0.12903261539824903</v>
+        <v>3.7295108040868584E-3</v>
       </c>
       <c r="C92">
-        <v>0.87096738460175094</v>
+        <v>4.8457021929562964E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -6976,10 +6976,10 @@
         <v>0.98122705276694477</v>
       </c>
       <c r="B93">
-        <v>0.13257807979274724</v>
+        <v>3.7818908261882723E-3</v>
       </c>
       <c r="C93">
-        <v>0.86742192020725273</v>
+        <v>4.7628852032198285E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -6987,10 +6987,10 @@
         <v>0.98112554211366865</v>
       </c>
       <c r="B94">
-        <v>0.13208191177039244</v>
+        <v>3.7881104795739586E-3</v>
       </c>
       <c r="C94">
-        <v>0.86791808822960759</v>
+        <v>4.7913785917728546E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -6998,10 +6998,10 @@
         <v>0.98143232597021846</v>
       </c>
       <c r="B95">
-        <v>0.13492821448161954</v>
+        <v>3.8068439985263166E-3</v>
       </c>
       <c r="C95">
-        <v>0.86507178551838038</v>
+        <v>4.6980421909452175E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -7009,10 +7009,10 @@
         <v>0.98237368675954251</v>
       </c>
       <c r="B96">
-        <v>0.11695928553084492</v>
+        <v>3.132571512070009E-3</v>
       </c>
       <c r="C96">
-        <v>0.883040714469155</v>
+        <v>4.5524949610482493E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -7020,10 +7020,10 @@
         <v>0.98228647860035123</v>
       </c>
       <c r="B97">
-        <v>0.12790375317622754</v>
+        <v>3.4426510024928546E-3</v>
       </c>
       <c r="C97">
-        <v>0.8720962468237724</v>
+        <v>4.5183158388847552E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -7031,10 +7031,10 @@
         <v>0.9828145841617062</v>
       </c>
       <c r="B98">
-        <v>0.12067715777439461</v>
+        <v>3.1513012515811899E-3</v>
       </c>
       <c r="C98">
-        <v>0.87932284222560542</v>
+        <v>4.4199327564284144E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -7042,10 +7042,10 @@
         <v>0.98314614029733405</v>
       </c>
       <c r="B99">
-        <v>0.11575448840363803</v>
+        <v>2.9644355852428157E-3</v>
       </c>
       <c r="C99">
-        <v>0.884245511596362</v>
+        <v>4.3589260408895991E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -7053,10 +7053,10 @@
         <v>0.98347405228302365</v>
       </c>
       <c r="B100">
-        <v>0.11354819805377493</v>
+        <v>2.8513558759298511E-3</v>
       </c>
       <c r="C100">
-        <v>0.88645180194622497</v>
+        <v>4.2847823215465361E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -7064,10 +7064,10 @@
         <v>0.9837613062694669</v>
       </c>
       <c r="B101">
-        <v>0.10943676849475861</v>
+        <v>2.7003443859872373E-3</v>
       </c>
       <c r="C101">
-        <v>0.89056323150524141</v>
+        <v>4.2298319498121274E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -7075,10 +7075,10 @@
         <v>0.98388412292438865</v>
       </c>
       <c r="B102">
-        <v>0.10979476673245968</v>
+        <v>2.6886878841600411E-3</v>
       </c>
       <c r="C102">
-        <v>0.89020523326754031</v>
+        <v>4.1961533479860376E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -7086,10 +7086,10 @@
         <v>0.9840301426345468</v>
       </c>
       <c r="B103">
-        <v>0.11278792239336155</v>
+        <v>2.7369599205790919E-3</v>
       </c>
       <c r="C103">
-        <v>0.88721207760663856</v>
+        <v>4.144152650754232E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -7097,10 +7097,10 @@
         <v>0.98447409859822377</v>
       </c>
       <c r="B104">
-        <v>0.10228797529015621</v>
+        <v>2.4131605096780768E-3</v>
       </c>
       <c r="C104">
-        <v>0.89771202470984379</v>
+        <v>4.0766284238631621E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -7108,10 +7108,10 @@
         <v>0.98480262636537075</v>
       </c>
       <c r="B105">
-        <v>0.10471131859535997</v>
+        <v>2.4180594444711593E-3</v>
       </c>
       <c r="C105">
-        <v>0.89528868140464002</v>
+        <v>3.9795951857617112E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -7119,10 +7119,10 @@
         <v>0.9848948155186672</v>
       </c>
       <c r="B106">
-        <v>0.1020903466071009</v>
+        <v>2.3432332198847733E-3</v>
       </c>
       <c r="C106">
-        <v>0.89790965339289919</v>
+        <v>3.9670341242597315E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -7130,10 +7130,10 @@
         <v>0.9851726831429648</v>
       </c>
       <c r="B107">
-        <v>0.10781158482220013</v>
+        <v>2.4290295730232344E-3</v>
       </c>
       <c r="C107">
-        <v>0.89218841517780001</v>
+        <v>3.8692466038649648E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -7141,10 +7141,10 @@
         <v>0.98546988428105087</v>
       </c>
       <c r="B108">
-        <v>0.10367829677439289</v>
+        <v>2.2890840049409685E-3</v>
       </c>
       <c r="C108">
-        <v>0.89632170322560711</v>
+        <v>3.8092567636674395E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -7152,10 +7152,10 @@
         <v>0.98570917296419358</v>
       </c>
       <c r="B109">
-        <v>0.10104759977444777</v>
+        <v>2.1942604159058462E-3</v>
       </c>
       <c r="C109">
-        <v>0.89895240022555234</v>
+        <v>3.7575201752750878E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -7163,10 +7163,10 @@
         <v>0.98599164159142749</v>
       </c>
       <c r="B110">
-        <v>9.022872936086837E-2</v>
+        <v>1.9205998470609145E-3</v>
       </c>
       <c r="C110">
-        <v>0.90977127063913155</v>
+        <v>3.7275778717005922E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -7174,10 +7174,10 @@
         <v>0.98605612485668626</v>
       </c>
       <c r="B111">
-        <v>9.7488839201465075E-2</v>
+        <v>2.065585557167481E-3</v>
       </c>
       <c r="C111">
-        <v>0.90251116079853499</v>
+        <v>3.6808093926286367E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -7185,10 +7185,10 @@
         <v>0.98662378520306315</v>
       </c>
       <c r="B112">
-        <v>8.2496454228191865E-2</v>
+        <v>1.6767693250310256E-3</v>
       </c>
       <c r="C112">
-        <v>0.91750354577180815</v>
+        <v>3.5896181073992353E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -7196,10 +7196,10 @@
         <v>0.98694056401809216</v>
       </c>
       <c r="B113">
-        <v>7.7824271382129037E-2</v>
+        <v>1.5443448629824336E-3</v>
       </c>
       <c r="C113">
-        <v>0.92217572861787089</v>
+        <v>3.5224543234053406E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -7207,10 +7207,10 @@
         <v>0.9867366669115617</v>
       </c>
       <c r="B114">
-        <v>9.2863530295734617E-2</v>
+        <v>1.8715553251151939E-3</v>
       </c>
       <c r="C114">
-        <v>0.90713646970426542</v>
+        <v>3.5191077585541748E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -7218,10 +7218,10 @@
         <v>0.98717759320004594</v>
       </c>
       <c r="B115">
-        <v>7.9985285186960658E-2</v>
+        <v>1.5584197820262373E-3</v>
       </c>
       <c r="C115">
-        <v>0.9200147148130392</v>
+        <v>3.4504170127801978E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -7229,10 +7229,10 @@
         <v>0.98711696979906638</v>
       </c>
       <c r="B116">
-        <v>8.6097632809135807E-2</v>
+        <v>1.6854428830330936E-3</v>
       </c>
       <c r="C116">
-        <v>0.91390236719086415</v>
+        <v>3.4436982427903912E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -7240,10 +7240,10 @@
         <v>0.98735029226414861</v>
       </c>
       <c r="B117">
-        <v>8.3786585940575406E-2</v>
+        <v>1.6104965162658884E-3</v>
       </c>
       <c r="C117">
-        <v>0.91621341405942469</v>
+        <v>3.3898805822366006E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -7251,10 +7251,10 @@
         <v>0.98760680269093581</v>
       </c>
       <c r="B118">
-        <v>8.7908131960686198E-2</v>
+        <v>1.6554543873082053E-3</v>
       </c>
       <c r="C118">
-        <v>0.91209186803931375</v>
+        <v>3.3062006704373433E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -7262,10 +7262,10 @@
         <v>0.98779209950549496</v>
       </c>
       <c r="B119">
-        <v>8.10361534780943E-2</v>
+        <v>1.503227121185268E-3</v>
       </c>
       <c r="C119">
-        <v>0.91896384652190566</v>
+        <v>3.281305515358194E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -7273,10 +7273,10 @@
         <v>0.98819103004476427</v>
       </c>
       <c r="B120">
-        <v>8.315941458682434E-2</v>
+        <v>1.4922041542301452E-3</v>
       </c>
       <c r="C120">
-        <v>0.9168405854131757</v>
+        <v>3.1667451152898665E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -7284,10 +7284,10 @@
         <v>0.9880411354701174</v>
       </c>
       <c r="B121">
-        <v>8.9786194300782524E-2</v>
+        <v>1.6315647497150629E-3</v>
       </c>
       <c r="C121">
-        <v>0.9102138056992175</v>
+        <v>3.1837622317240223E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -7295,10 +7295,10 @@
         <v>0.98841267610864125</v>
       </c>
       <c r="B122">
-        <v>7.7679311196926171E-2</v>
+        <v>1.3677077763971481E-3</v>
       </c>
       <c r="C122">
-        <v>0.92232068880307383</v>
+        <v>3.125880411886553E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -7306,10 +7306,10 @@
         <v>0.9884295240716201</v>
       </c>
       <c r="B123">
-        <v>8.007276808385054E-2</v>
+        <v>1.4077997021166527E-3</v>
       </c>
       <c r="C123">
-        <v>0.91992723191614945</v>
+        <v>3.1132354006247309E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -7317,10 +7317,10 @@
         <v>0.98884177477824453</v>
       </c>
       <c r="B124">
-        <v>7.0676339955264095E-2</v>
+        <v>1.1983232284881794E-3</v>
       </c>
       <c r="C124">
-        <v>0.92932366004473588</v>
+        <v>3.0329788314191489E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -7328,10 +7328,10 @@
         <v>0.98883954841979671</v>
       </c>
       <c r="B125">
-        <v>6.3695720910292672E-2</v>
+        <v>1.0801817329496959E-3</v>
       </c>
       <c r="C125">
-        <v>0.93630427908970726</v>
+        <v>3.0563707706221101E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -7339,10 +7339,10 @@
         <v>0.98905726852406961</v>
       </c>
       <c r="B126">
-        <v>7.2032844947552133E-2</v>
+        <v>1.1977360283354404E-3</v>
       </c>
       <c r="C126">
-        <v>0.92796715505244798</v>
+        <v>2.9700626401538907E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -7350,10 +7350,10 @@
         <v>0.98914824834153203</v>
       </c>
       <c r="B127">
-        <v>7.0842585380409315E-2</v>
+        <v>1.168151180856567E-3</v>
       </c>
       <c r="C127">
-        <v>0.92915741461959067</v>
+        <v>2.9491468961305466E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -7361,10 +7361,10 @@
         <v>0.98920301351254503</v>
       </c>
       <c r="B128">
-        <v>7.6341811716130567E-2</v>
+        <v>1.2524771856367582E-3</v>
       </c>
       <c r="C128">
-        <v>0.92365818828386936</v>
+        <v>2.9168970708769865E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -7372,10 +7372,10 @@
         <v>0.98935250512387896</v>
       </c>
       <c r="B129">
-        <v>6.9552209114437352E-2</v>
+        <v>1.1252866640434078E-3</v>
       </c>
       <c r="C129">
-        <v>0.93044779088556262</v>
+        <v>2.8976552294614013E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -7383,10 +7383,10 @@
         <v>0.98954721387765798</v>
       </c>
       <c r="B130">
-        <v>6.2563892247486944E-2</v>
+        <v>9.9371221264073781E-4</v>
       </c>
       <c r="C130">
-        <v>0.93743610775251307</v>
+        <v>2.8660317921192845E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -7394,10 +7394,10 @@
         <v>0.98992151885345003</v>
       </c>
       <c r="B131">
-        <v>5.504747526860581E-2</v>
+        <v>8.4301887095812567E-4</v>
       </c>
       <c r="C131">
-        <v>0.94495252473139413</v>
+        <v>2.7855588574314805E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -7405,10 +7405,10 @@
         <v>0.99008198589797569</v>
       </c>
       <c r="B132">
-        <v>5.3496535980441039E-2</v>
+        <v>8.0622300545769854E-4</v>
       </c>
       <c r="C132">
-        <v>0.94650346401955887</v>
+        <v>2.745707000950301E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -7416,10 +7416,10 @@
         <v>0.9900084271619265</v>
       </c>
       <c r="B133">
-        <v>5.936283963583739E-2</v>
+        <v>9.0126670969547173E-4</v>
       </c>
       <c r="C133">
-        <v>0.94063716036416267</v>
+        <v>2.7489272874435575E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -7427,10 +7427,10 @@
         <v>0.9899639114775991</v>
       </c>
       <c r="B134">
-        <v>6.8052933621224457E-2</v>
+        <v>1.0378059074015566E-3</v>
       </c>
       <c r="C134">
-        <v>0.93194706637877556</v>
+        <v>2.7356654828539672E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -7438,10 +7438,10 @@
         <v>0.98998372915924171</v>
       </c>
       <c r="B135">
-        <v>7.7029354681344114E-2</v>
+        <v>1.1723765487646172E-3</v>
       </c>
       <c r="C135">
-        <v>0.9229706453186558</v>
+        <v>2.703965897413594E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -7449,10 +7449,10 @@
         <v>0.99014368717857493</v>
       </c>
       <c r="B136">
-        <v>6.7939196843630867E-2</v>
+        <v>1.0175123540600312E-3</v>
       </c>
       <c r="C136">
-        <v>0.93206080315636908</v>
+        <v>2.6869895980786207E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -7460,10 +7460,10 @@
         <v>0.99018621174841071</v>
       </c>
       <c r="B137">
-        <v>7.3027544442832368E-2</v>
+        <v>1.0890007641538959E-3</v>
       </c>
       <c r="C137">
-        <v>0.92697245555716767</v>
+        <v>2.6607910713490224E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -7471,10 +7471,10 @@
         <v>0.99043952240010302</v>
       </c>
       <c r="B138">
-        <v>7.100761184818255E-2</v>
+        <v>1.031547660649714E-3</v>
       </c>
       <c r="C138">
-        <v>0.92899238815181751</v>
+        <v>2.5977598827774274E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -7482,10 +7482,10 @@
         <v>0.99073246912828916</v>
       </c>
       <c r="B139">
-        <v>5.9192262863297089E-2</v>
+        <v>8.3355409235501266E-4</v>
       </c>
       <c r="C139">
-        <v>0.94080773713670296</v>
+        <v>2.5501879166991297E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -7493,10 +7493,10 @@
         <v>0.99068229189649581</v>
       </c>
       <c r="B140">
-        <v>6.3580667817872458E-2</v>
+        <v>9.0019996148060072E-4</v>
       </c>
       <c r="C140">
-        <v>0.93641933218212758</v>
+        <v>2.5520356335884859E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -7504,10 +7504,10 @@
         <v>0.99104079279260004</v>
       </c>
       <c r="B141">
-        <v>4.3055911767232585E-2</v>
+        <v>5.8614784836813624E-4</v>
       </c>
       <c r="C141">
-        <v>0.95694408823276733</v>
+        <v>2.5076297103154104E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9982,8 +9982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE9774-5125-4E63-8447-504B0C24CAE3}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10104,12 +10104,12 @@
         <v>1.3151406393638654E-2</v>
       </c>
       <c r="N3">
-        <f>C3/SUM(C3:D3)</f>
-        <v>0.65555351607262868</v>
+        <f>C3/$C$2</f>
+        <v>0.98302255190569487</v>
       </c>
       <c r="O3">
-        <f>D3/SUM(C3:D3)</f>
-        <v>0.34444648392737132</v>
+        <f>D3/$D$2</f>
+        <v>0.99421324437382885</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -10153,12 +10153,12 @@
         <v>9.0421968003897124E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N67" si="7">C4/SUM(C4:D4)</f>
-        <v>0.64848470004890479</v>
+        <f t="shared" ref="N4:N67" si="7">C4/$C$2</f>
+        <v>0.89628164074536765</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="8">D4/SUM(C4:D4)</f>
-        <v>0.35151529995109509</v>
+        <f t="shared" ref="O4:O67" si="8">D4/$D$2</f>
+        <v>0.93517191875698635</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -10203,11 +10203,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="7"/>
-        <v>0.63591854523890112</v>
+        <v>0.77735590066718607</v>
       </c>
       <c r="O5">
         <f t="shared" si="8"/>
-        <v>0.36408145476109882</v>
+        <v>0.85668157226879327</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -10252,11 +10252,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="7"/>
-        <v>0.62534184589854236</v>
+        <v>0.68718896815713471</v>
       </c>
       <c r="O6">
         <f t="shared" si="8"/>
-        <v>0.3746581541014577</v>
+        <v>0.79249464245093326</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -10301,11 +10301,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="7"/>
-        <v>0.61573079776641026</v>
+        <v>0.61687720739570429</v>
       </c>
       <c r="O7">
         <f t="shared" si="8"/>
-        <v>0.38426920223358974</v>
+        <v>0.74104722319318672</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -10350,11 +10350,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="7"/>
-        <v>0.60501787300989651</v>
+        <v>0.54661601160157935</v>
       </c>
       <c r="O8">
         <f t="shared" si="8"/>
-        <v>0.3949821269901036</v>
+        <v>0.68690083912510747</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -10399,11 +10399,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="7"/>
-        <v>0.5938893369300221</v>
+        <v>0.48554848454190763</v>
       </c>
       <c r="O9">
         <f t="shared" si="8"/>
-        <v>0.40611066306997784</v>
+        <v>0.63910751778227548</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -10448,11 +10448,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="7"/>
-        <v>0.58432082122852669</v>
+        <v>0.43745746732171531</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>0.41567917877147326</v>
+        <v>0.59902535053855321</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -10497,11 +10497,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="7"/>
-        <v>0.57391769612085919</v>
+        <v>0.39357081861369136</v>
       </c>
       <c r="O11">
         <f t="shared" si="8"/>
-        <v>0.42608230387914076</v>
+        <v>0.5624309737011598</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="7"/>
-        <v>0.56363318729425782</v>
+        <v>0.3546133935878677</v>
       </c>
       <c r="O12">
         <f t="shared" si="8"/>
-        <v>0.43636681270574207</v>
+        <v>0.52846076545473164</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -10595,11 +10595,11 @@
       </c>
       <c r="N13">
         <f t="shared" si="7"/>
-        <v>0.5540717402290638</v>
+        <v>0.3220377606411714</v>
       </c>
       <c r="O13">
         <f t="shared" si="8"/>
-        <v>0.44592825977093625</v>
+        <v>0.49889396671377939</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -10644,11 +10644,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="7"/>
-        <v>0.54530156955801357</v>
+        <v>0.29485653614005408</v>
       </c>
       <c r="O14">
         <f t="shared" si="8"/>
-        <v>0.45469843044198638</v>
+        <v>0.47326013673627038</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -10693,11 +10693,11 @@
       </c>
       <c r="N15">
         <f t="shared" si="7"/>
-        <v>0.5361645582621497</v>
+        <v>0.269462224037543</v>
       </c>
       <c r="O15">
         <f t="shared" si="8"/>
-        <v>0.46383544173785024</v>
+        <v>0.44871044134455473</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -10742,11 +10742,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="7"/>
-        <v>0.52658690518388263</v>
+        <v>0.24590354261391725</v>
       </c>
       <c r="O16">
         <f t="shared" si="8"/>
-        <v>0.47341309481611732</v>
+        <v>0.42553712495985374</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -10791,11 +10791,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="7"/>
-        <v>0.5180407732570036</v>
+        <v>0.22572035053362738</v>
       </c>
       <c r="O17">
         <f t="shared" si="8"/>
-        <v>0.48195922674299629</v>
+        <v>0.40422161251106947</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
@@ -10840,11 +10840,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="7"/>
-        <v>0.50963156024167755</v>
+        <v>0.20783123551611843</v>
       </c>
       <c r="O18">
         <f t="shared" si="8"/>
-        <v>0.49036843975832251</v>
+        <v>0.38492797390888683</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -10889,11 +10889,11 @@
       </c>
       <c r="N19">
         <f t="shared" si="7"/>
-        <v>0.50029705674487746</v>
+        <v>0.19066975726886481</v>
       </c>
       <c r="O19">
         <f t="shared" si="8"/>
-        <v>0.49970294325512249</v>
+        <v>0.36657954802781473</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -10938,11 +10938,11 @@
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
-        <v>0.49114668880746531</v>
+        <v>0.17508122792809594</v>
       </c>
       <c r="O20">
         <f t="shared" si="8"/>
-        <v>0.50885331119253474</v>
+        <v>0.34915914912719015</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -10987,11 +10987,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.48162369186565002</v>
+        <v>0.15931961639030492</v>
       </c>
       <c r="O21">
         <f t="shared" si="8"/>
-        <v>0.51837630813434987</v>
+        <v>0.33007224886047848</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -11036,11 +11036,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.47161147688345761</v>
+        <v>0.14556420193774205</v>
       </c>
       <c r="O22">
         <f t="shared" si="8"/>
-        <v>0.52838852311654227</v>
+        <v>0.31392510813326169</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -11085,11 +11085,11 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.46285861979839749</v>
+        <v>0.13430200027139558</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
-        <v>0.5371413802016024</v>
+        <v>0.30000272117866217</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -11134,11 +11134,11 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>0.45514556865266187</v>
+        <v>0.12440258722015522</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
-        <v>0.54485443134733813</v>
+        <v>0.28665666201354867</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -11183,11 +11183,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>0.44724178379431406</v>
+        <v>0.11562562622386803</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
-        <v>0.55275821620568599</v>
+        <v>0.27507390434539375</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -11232,11 +11232,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>0.438778700718085</v>
+        <v>0.10681322723961066</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
-        <v>0.561221299281915</v>
+        <v>0.26297599212933509</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -11281,11 +11281,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>0.43097730553860841</v>
+        <v>9.930784911032034E-2</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
-        <v>0.56902269446139164</v>
+        <v>0.25238365186355072</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -11330,11 +11330,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.42311504008679857</v>
+        <v>9.2238361408867819E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
-        <v>0.57688495991320143</v>
+        <v>0.24207212961422928</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>0.41513967955972536</v>
+        <v>8.5610145303694443E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
-        <v>0.58486032044027458</v>
+        <v>0.23215904279914409</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -11428,11 +11428,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>0.40767479507782478</v>
+        <v>7.9879950515605952E-2</v>
       </c>
       <c r="O30">
         <f t="shared" si="8"/>
-        <v>0.59232520492217511</v>
+        <v>0.22340176355414654</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -11477,11 +11477,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>0.39848096238427833</v>
+        <v>7.392860337270564E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="8"/>
-        <v>0.60151903761572167</v>
+        <v>0.21481111994220159</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>0.39191676009615439</v>
+        <v>6.9121266952729729E-2</v>
       </c>
       <c r="O32">
         <f t="shared" si="8"/>
-        <v>0.60808323990384561</v>
+        <v>0.20643500653974498</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>0.38375000238994922</v>
+        <v>6.4442140131741515E-2</v>
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
-        <v>0.61624999761005073</v>
+        <v>0.19919615565128743</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -11624,11 +11624,11 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>0.37628417168672695</v>
+        <v>6.0220176678283575E-2</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>0.62371582831327321</v>
+        <v>0.19213889947041132</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -11673,11 +11673,11 @@
       </c>
       <c r="N35">
         <f t="shared" si="7"/>
-        <v>0.37008561575380372</v>
+        <v>5.6438934086260523E-2</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
-        <v>0.62991438424619628</v>
+        <v>0.18491007781337304</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -11722,11 +11722,11 @@
       </c>
       <c r="N36">
         <f t="shared" si="7"/>
-        <v>0.36193301579077514</v>
+        <v>5.2678827145763732E-2</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
-        <v>0.63806698420922481</v>
+        <v>0.17876258538997608</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -11771,11 +11771,11 @@
       </c>
       <c r="N37">
         <f t="shared" si="7"/>
-        <v>0.35716598904446828</v>
+        <v>4.9856233732219257E-2</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
-        <v>0.64283401095553172</v>
+        <v>0.17272320000161223</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -11820,11 +11820,11 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>0.35034176366374487</v>
+        <v>4.6844252100414929E-2</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
-        <v>0.64965823633625519</v>
+        <v>0.16720597961446557</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -11869,11 +11869,11 @@
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
-        <v>0.3443695088221348</v>
+        <v>4.4258451536316551E-2</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
-        <v>0.6556304911778652</v>
+        <v>0.16219338035709913</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -11918,11 +11918,11 @@
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
-        <v>0.33807816844280197</v>
+        <v>4.173299457121362E-2</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
-        <v>0.66192183155719797</v>
+        <v>0.15727930645480287</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -11967,11 +11967,11 @@
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>0.3321446627672035</v>
+        <v>3.9501988645649515E-2</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
-        <v>0.66785533723279655</v>
+        <v>0.15288910590636012</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -12016,11 +12016,11 @@
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>0.32811307912097776</v>
+        <v>3.7502266632824945E-2</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
-        <v>0.67188692087902224</v>
+        <v>0.1478198033250788</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -12065,11 +12065,11 @@
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>0.32056821048960515</v>
+        <v>3.5217501730191565E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
-        <v>0.67943178951039485</v>
+        <v>0.14367672264695089</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -12114,11 +12114,11 @@
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
-        <v>0.31598044238050055</v>
+        <v>3.3469655445700262E-2</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
-        <v>0.6840195576194994</v>
+        <v>0.13946396760929461</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -12163,11 +12163,11 @@
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>0.30981221243750123</v>
+        <v>3.1599016147138691E-2</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
-        <v>0.69018778756249866</v>
+        <v>0.13550170388859345</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -12212,11 +12212,11 @@
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>0.30264585055963406</v>
+        <v>2.9630165736214149E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
-        <v>0.697354149440366</v>
+        <v>0.13141810618777386</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -12261,11 +12261,11 @@
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>0.29819940705549558</v>
+        <v>2.814970724093506E-2</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
-        <v>0.70180059294450448</v>
+        <v>0.12752146576579321</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
@@ -12310,11 +12310,11 @@
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>0.2939060652910675</v>
+        <v>2.6776291490622859E-2</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
-        <v>0.70609393470893245</v>
+        <v>0.12382456692186523</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
@@ -12359,11 +12359,11 @@
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>0.28818344921740496</v>
+        <v>2.5503526074358719E-2</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
-        <v>0.71181655078259498</v>
+        <v>0.12125558028580889</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
@@ -12408,11 +12408,11 @@
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>0.28346903045535038</v>
+        <v>2.4162383929329082E-2</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
-        <v>0.71653096954464957</v>
+        <v>0.11756325086421397</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
@@ -12457,11 +12457,11 @@
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>0.27775552618635407</v>
+        <v>2.2763136137070858E-2</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
-        <v>0.72224447381364587</v>
+        <v>0.11393471574463847</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
@@ -12506,11 +12506,11 @@
       </c>
       <c r="N52">
         <f t="shared" si="7"/>
-        <v>0.27300632822312448</v>
+        <v>2.1777071413937376E-2</v>
       </c>
       <c r="O52">
         <f t="shared" si="8"/>
-        <v>0.72699367177687557</v>
+        <v>0.11162458313589352</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
@@ -12555,11 +12555,11 @@
       </c>
       <c r="N53">
         <f t="shared" si="7"/>
-        <v>0.26959603138030014</v>
+        <v>2.0756748281392255E-2</v>
       </c>
       <c r="O53">
         <f t="shared" si="8"/>
-        <v>0.73040396861969981</v>
+        <v>0.10824588768369205</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -12604,11 +12604,11 @@
       </c>
       <c r="N54">
         <f t="shared" si="7"/>
-        <v>0.26426563407107861</v>
+        <v>1.9727988066403825E-2</v>
       </c>
       <c r="O54">
         <f t="shared" si="8"/>
-        <v>0.73573436592892127</v>
+        <v>0.10572205767500926</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
@@ -12653,11 +12653,11 @@
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
-        <v>0.25698215642119621</v>
+        <v>1.8393906268318626E-2</v>
       </c>
       <c r="O55">
         <f t="shared" si="8"/>
-        <v>0.74301784357880385</v>
+        <v>0.10236999961551958</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -12702,11 +12702,11 @@
       </c>
       <c r="N56">
         <f t="shared" si="7"/>
-        <v>0.25466775758822419</v>
+        <v>1.7734093855004691E-2</v>
       </c>
       <c r="O56">
         <f t="shared" si="8"/>
-        <v>0.74533224241177576</v>
+        <v>9.9905041688271787E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
@@ -12751,11 +12751,11 @@
       </c>
       <c r="N57">
         <f t="shared" si="7"/>
-        <v>0.24958323297866813</v>
+        <v>1.6931941659655128E-2</v>
       </c>
       <c r="O57">
         <f t="shared" si="8"/>
-        <v>0.75041676702133187</v>
+        <v>9.799329134399011E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -12800,11 +12800,11 @@
       </c>
       <c r="N58">
         <f t="shared" si="7"/>
-        <v>0.24475464268541505</v>
+        <v>1.6094896542997957E-2</v>
       </c>
       <c r="O58">
         <f t="shared" si="8"/>
-        <v>0.75524535731458498</v>
+        <v>9.5597772562263802E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
@@ -12849,11 +12849,11 @@
       </c>
       <c r="N59">
         <f t="shared" si="7"/>
-        <v>0.24013470688125968</v>
+        <v>1.524076243645023E-2</v>
       </c>
       <c r="O59">
         <f t="shared" si="8"/>
-        <v>0.75986529311874029</v>
+        <v>9.2830529321777558E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
@@ -12898,11 +12898,11 @@
       </c>
       <c r="N60">
         <f t="shared" si="7"/>
-        <v>0.23383094028371193</v>
+        <v>1.4461345880937271E-2</v>
       </c>
       <c r="O60">
         <f t="shared" si="8"/>
-        <v>0.76616905971628801</v>
+        <v>9.1208183314211488E-2</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
@@ -12947,11 +12947,11 @@
       </c>
       <c r="N61">
         <f t="shared" si="7"/>
-        <v>0.23234777077941007</v>
+        <v>1.4043013316557967E-2</v>
       </c>
       <c r="O61">
         <f t="shared" si="8"/>
-        <v>0.76765222922058995</v>
+        <v>8.930767252710517E-2</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -12996,11 +12996,11 @@
       </c>
       <c r="N62">
         <f t="shared" si="7"/>
-        <v>0.22931241209787906</v>
+        <v>1.345653843306297E-2</v>
       </c>
       <c r="O62">
         <f t="shared" si="8"/>
-        <v>0.770687587902121</v>
+        <v>8.7053576100650593E-2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
@@ -13045,11 +13045,11 @@
       </c>
       <c r="N63">
         <f t="shared" si="7"/>
-        <v>0.22840494568798292</v>
+        <v>1.3245184750257542E-2</v>
       </c>
       <c r="O63">
         <f t="shared" si="8"/>
-        <v>0.77159505431201714</v>
+        <v>8.6128009505112485E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -13094,11 +13094,11 @@
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>0.22451355144002447</v>
+        <v>1.2619300418916847E-2</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
-        <v>0.77548644855997562</v>
+        <v>8.3901435403641839E-2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
@@ -13143,11 +13143,11 @@
       </c>
       <c r="N65">
         <f t="shared" si="7"/>
-        <v>0.21906578067864585</v>
+        <v>1.1895343248326586E-2</v>
       </c>
       <c r="O65">
         <f t="shared" si="8"/>
-        <v>0.7809342193213541</v>
+        <v>8.1624276798487452E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
@@ -13192,11 +13192,11 @@
       </c>
       <c r="N66">
         <f t="shared" si="7"/>
-        <v>0.21660031255398385</v>
+        <v>1.1513316596165434E-2</v>
       </c>
       <c r="O66">
         <f t="shared" si="8"/>
-        <v>0.78339968744601607</v>
+        <v>8.0154372835117366E-2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
@@ -13241,11 +13241,11 @@
       </c>
       <c r="N67">
         <f t="shared" si="7"/>
-        <v>0.21030891765625961</v>
+        <v>1.0907670322154282E-2</v>
       </c>
       <c r="O67">
         <f t="shared" si="8"/>
-        <v>0.7896910823437403</v>
+        <v>7.8837711083722908E-2</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
@@ -13289,12 +13289,12 @@
         <v>0.96685639356879738</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N131" si="16">C68/SUM(C68:D68)</f>
-        <v>0.20854643483257626</v>
+        <f t="shared" ref="N68:N131" si="16">C68/$C$2</f>
+        <v>1.0502854201360403E-2</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O131" si="17">D68/SUM(C68:D68)</f>
-        <v>0.79145356516742371</v>
+        <f t="shared" ref="O68:O131" si="17">D68/$D$2</f>
+        <v>7.6724216976170503E-2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="N69">
         <f t="shared" si="16"/>
-        <v>0.19913001683980355</v>
+        <v>9.663475367812693E-3</v>
       </c>
       <c r="O69">
         <f t="shared" si="17"/>
-        <v>0.80086998316019642</v>
+        <v>7.481024692235777E-2</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
@@ -13388,11 +13388,11 @@
       </c>
       <c r="N70">
         <f t="shared" si="16"/>
-        <v>0.20505699809866351</v>
+        <v>9.89783853286531E-3</v>
       </c>
       <c r="O70">
         <f t="shared" si="17"/>
-        <v>0.79494300190133649</v>
+        <v>7.3859135172140059E-2</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
@@ -13437,11 +13437,11 @@
       </c>
       <c r="N71">
         <f t="shared" si="16"/>
-        <v>0.19817270495143535</v>
+        <v>9.2618415072496293E-3</v>
       </c>
       <c r="O71">
         <f t="shared" si="17"/>
-        <v>0.80182729504856465</v>
+        <v>7.2133466221114245E-2</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="N72">
         <f t="shared" si="16"/>
-        <v>0.19600340444152925</v>
+        <v>8.9507278407171265E-3</v>
       </c>
       <c r="O72">
         <f t="shared" si="17"/>
-        <v>0.80399659555847081</v>
+        <v>7.0672654702002957E-2</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
@@ -13535,11 +13535,11 @@
       </c>
       <c r="N73">
         <f t="shared" si="16"/>
-        <v>0.18620084165391795</v>
+        <v>8.2964607626438841E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="17"/>
-        <v>0.81379915834608207</v>
+        <v>6.979606178488254E-2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
@@ -13584,11 +13584,11 @@
       </c>
       <c r="N74">
         <f t="shared" si="16"/>
-        <v>0.18864575753931817</v>
+        <v>8.2254795257604759E-3</v>
       </c>
       <c r="O74">
         <f t="shared" si="17"/>
-        <v>0.81135424246068177</v>
+        <v>6.8096870313089641E-2</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
@@ -13633,11 +13633,11 @@
       </c>
       <c r="N75">
         <f t="shared" si="16"/>
-        <v>0.18986448938245015</v>
+        <v>8.1872101119382645E-3</v>
       </c>
       <c r="O75">
         <f t="shared" si="17"/>
-        <v>0.81013551061754974</v>
+        <v>6.724381080805554E-2</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
@@ -13682,11 +13682,11 @@
       </c>
       <c r="N76">
         <f t="shared" si="16"/>
-        <v>0.17712389981639592</v>
+        <v>7.3462485920255168E-3</v>
       </c>
       <c r="O76">
         <f t="shared" si="17"/>
-        <v>0.82287610018360413</v>
+        <v>6.5693947903938718E-2</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
@@ -13731,11 +13731,11 @@
       </c>
       <c r="N77">
         <f t="shared" si="16"/>
-        <v>0.17648710680223295</v>
+        <v>7.164147772428053E-3</v>
       </c>
       <c r="O77">
         <f t="shared" si="17"/>
-        <v>0.82351289319776699</v>
+        <v>6.4346423485758475E-2</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
@@ -13780,11 +13780,11 @@
       </c>
       <c r="N78">
         <f t="shared" si="16"/>
-        <v>0.17309776521745943</v>
+        <v>6.831761429575021E-3</v>
       </c>
       <c r="O78">
         <f t="shared" si="17"/>
-        <v>0.82690223478254066</v>
+        <v>6.2819988848112809E-2</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
@@ -13829,11 +13829,11 @@
       </c>
       <c r="N79">
         <f t="shared" si="16"/>
-        <v>0.17498045365129644</v>
+        <v>6.7880686412275532E-3</v>
       </c>
       <c r="O79">
         <f t="shared" si="17"/>
-        <v>0.82501954634870356</v>
+        <v>6.160605274037495E-2</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
@@ -13878,11 +13878,11 @@
       </c>
       <c r="N80">
         <f t="shared" si="16"/>
-        <v>0.16891744219876573</v>
+        <v>6.4151685256210204E-3</v>
       </c>
       <c r="O80">
         <f t="shared" si="17"/>
-        <v>0.83108255780123441</v>
+        <v>6.0754744537689753E-2</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="N81">
         <f t="shared" si="16"/>
-        <v>0.16676770542132016</v>
+        <v>6.2165130649989436E-3</v>
       </c>
       <c r="O81">
         <f t="shared" si="17"/>
-        <v>0.83323229457867987</v>
+        <v>5.9786544034714818E-2</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
@@ -13976,11 +13976,11 @@
       </c>
       <c r="N82">
         <f t="shared" si="16"/>
-        <v>0.16451958378102605</v>
+        <v>6.0308780660238469E-3</v>
       </c>
       <c r="O82">
         <f t="shared" si="17"/>
-        <v>0.83548041621897395</v>
+        <v>5.8952425536100847E-2</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
@@ -14025,11 +14025,11 @@
       </c>
       <c r="N83">
         <f t="shared" si="16"/>
-        <v>0.1572072192638006</v>
+        <v>5.5732527811061805E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="17"/>
-        <v>0.84279278073619934</v>
+        <v>5.751213905339516E-2</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
@@ -14074,11 +14074,11 @@
       </c>
       <c r="N84">
         <f t="shared" si="16"/>
-        <v>0.15469330947715376</v>
+        <v>5.3736364481105133E-3</v>
       </c>
       <c r="O84">
         <f t="shared" si="17"/>
-        <v>0.84530669052284624</v>
+        <v>5.6521478651891291E-2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
@@ -14123,11 +14123,11 @@
       </c>
       <c r="N85">
         <f t="shared" si="16"/>
-        <v>0.15159488862383791</v>
+        <v>5.1678971202288454E-3</v>
       </c>
       <c r="O85">
         <f t="shared" si="17"/>
-        <v>0.84840511137616204</v>
+        <v>5.5671770816030385E-2</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
@@ -14172,11 +14172,11 @@
       </c>
       <c r="N86">
         <f t="shared" si="16"/>
-        <v>0.15387396645067986</v>
+        <v>5.1739880682447458E-3</v>
       </c>
       <c r="O86">
         <f t="shared" si="17"/>
-        <v>0.84612603354932014</v>
+        <v>5.4764331391331016E-2</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
@@ -14221,11 +14221,11 @@
       </c>
       <c r="N87">
         <f t="shared" si="16"/>
-        <v>0.14376170548390393</v>
+        <v>4.6974629806301261E-3</v>
       </c>
       <c r="O87">
         <f t="shared" si="17"/>
-        <v>0.85623829451609612</v>
+        <v>5.3853911899505294E-2</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
@@ -14270,11 +14270,11 @@
       </c>
       <c r="N88">
         <f t="shared" si="16"/>
-        <v>0.14653984783061161</v>
+        <v>4.7293722555946912E-3</v>
       </c>
       <c r="O88">
         <f t="shared" si="17"/>
-        <v>0.85346015216938831</v>
+        <v>5.3019236585057035E-2</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
@@ -14319,11 +14319,11 @@
       </c>
       <c r="N89">
         <f t="shared" si="16"/>
-        <v>0.13816869428886228</v>
+        <v>4.3599946295188562E-3</v>
       </c>
       <c r="O89">
         <f t="shared" si="17"/>
-        <v>0.86183130571113775</v>
+        <v>5.2348112212374717E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
@@ -14368,11 +14368,11 @@
       </c>
       <c r="N90">
         <f t="shared" si="16"/>
-        <v>0.14168588703690654</v>
+        <v>4.4155900274015026E-3</v>
       </c>
       <c r="O90">
         <f t="shared" si="17"/>
-        <v>0.85831411296309346</v>
+        <v>5.1488573775361875E-2</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
@@ -14417,11 +14417,11 @@
       </c>
       <c r="N91">
         <f t="shared" si="16"/>
-        <v>0.13518445894302075</v>
+        <v>4.1069869075910058E-3</v>
       </c>
       <c r="O91">
         <f t="shared" si="17"/>
-        <v>0.86481554105697922</v>
+        <v>5.0573439951080344E-2</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
@@ -14466,11 +14466,11 @@
       </c>
       <c r="N92">
         <f t="shared" si="16"/>
-        <v>0.14816221462632401</v>
+        <v>4.4929868087618023E-3</v>
       </c>
       <c r="O92">
         <f t="shared" si="17"/>
-        <v>0.85183778537367605</v>
+        <v>4.9722967666801621E-2</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
@@ -14515,11 +14515,11 @@
       </c>
       <c r="N93">
         <f t="shared" si="16"/>
-        <v>0.12903261539824903</v>
+        <v>3.7295108040868584E-3</v>
       </c>
       <c r="O93">
         <f t="shared" si="17"/>
-        <v>0.87096738460175094</v>
+        <v>4.8457021929562964E-2</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
@@ -14564,11 +14564,11 @@
       </c>
       <c r="N94">
         <f t="shared" si="16"/>
-        <v>0.13257807979274724</v>
+        <v>3.7818908261882723E-3</v>
       </c>
       <c r="O94">
         <f t="shared" si="17"/>
-        <v>0.86742192020725273</v>
+        <v>4.7628852032198285E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
@@ -14613,11 +14613,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="16"/>
-        <v>0.13208191177039244</v>
+        <v>3.7881104795739586E-3</v>
       </c>
       <c r="O95">
         <f t="shared" si="17"/>
-        <v>0.86791808822960759</v>
+        <v>4.7913785917728546E-2</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
@@ -14662,11 +14662,11 @@
       </c>
       <c r="N96">
         <f t="shared" si="16"/>
-        <v>0.13492821448161954</v>
+        <v>3.8068439985263166E-3</v>
       </c>
       <c r="O96">
         <f t="shared" si="17"/>
-        <v>0.86507178551838038</v>
+        <v>4.6980421909452175E-2</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
@@ -14711,11 +14711,11 @@
       </c>
       <c r="N97">
         <f t="shared" si="16"/>
-        <v>0.11695928553084492</v>
+        <v>3.132571512070009E-3</v>
       </c>
       <c r="O97">
         <f t="shared" si="17"/>
-        <v>0.883040714469155</v>
+        <v>4.5524949610482493E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
@@ -14760,11 +14760,11 @@
       </c>
       <c r="N98">
         <f t="shared" si="16"/>
-        <v>0.12790375317622754</v>
+        <v>3.4426510024928546E-3</v>
       </c>
       <c r="O98">
         <f t="shared" si="17"/>
-        <v>0.8720962468237724</v>
+        <v>4.5183158388847552E-2</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
@@ -14809,11 +14809,11 @@
       </c>
       <c r="N99">
         <f t="shared" si="16"/>
-        <v>0.12067715777439461</v>
+        <v>3.1513012515811899E-3</v>
       </c>
       <c r="O99">
         <f t="shared" si="17"/>
-        <v>0.87932284222560542</v>
+        <v>4.4199327564284144E-2</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
@@ -14858,11 +14858,11 @@
       </c>
       <c r="N100">
         <f t="shared" si="16"/>
-        <v>0.11575448840363803</v>
+        <v>2.9644355852428157E-3</v>
       </c>
       <c r="O100">
         <f t="shared" si="17"/>
-        <v>0.884245511596362</v>
+        <v>4.3589260408895991E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
@@ -14907,11 +14907,11 @@
       </c>
       <c r="N101">
         <f t="shared" si="16"/>
-        <v>0.11354819805377493</v>
+        <v>2.8513558759298511E-3</v>
       </c>
       <c r="O101">
         <f t="shared" si="17"/>
-        <v>0.88645180194622497</v>
+        <v>4.2847823215465361E-2</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
@@ -14956,11 +14956,11 @@
       </c>
       <c r="N102">
         <f t="shared" si="16"/>
-        <v>0.10943676849475861</v>
+        <v>2.7003443859872373E-3</v>
       </c>
       <c r="O102">
         <f t="shared" si="17"/>
-        <v>0.89056323150524141</v>
+        <v>4.2298319498121274E-2</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
@@ -15005,11 +15005,11 @@
       </c>
       <c r="N103">
         <f t="shared" si="16"/>
-        <v>0.10979476673245968</v>
+        <v>2.6886878841600411E-3</v>
       </c>
       <c r="O103">
         <f t="shared" si="17"/>
-        <v>0.89020523326754031</v>
+        <v>4.1961533479860376E-2</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
@@ -15054,11 +15054,11 @@
       </c>
       <c r="N104">
         <f t="shared" si="16"/>
-        <v>0.11278792239336155</v>
+        <v>2.7369599205790919E-3</v>
       </c>
       <c r="O104">
         <f t="shared" si="17"/>
-        <v>0.88721207760663856</v>
+        <v>4.144152650754232E-2</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
@@ -15103,11 +15103,11 @@
       </c>
       <c r="N105">
         <f t="shared" si="16"/>
-        <v>0.10228797529015621</v>
+        <v>2.4131605096780768E-3</v>
       </c>
       <c r="O105">
         <f t="shared" si="17"/>
-        <v>0.89771202470984379</v>
+        <v>4.0766284238631621E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
@@ -15152,11 +15152,11 @@
       </c>
       <c r="N106">
         <f t="shared" si="16"/>
-        <v>0.10471131859535997</v>
+        <v>2.4180594444711593E-3</v>
       </c>
       <c r="O106">
         <f t="shared" si="17"/>
-        <v>0.89528868140464002</v>
+        <v>3.9795951857617112E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
@@ -15201,11 +15201,11 @@
       </c>
       <c r="N107">
         <f t="shared" si="16"/>
-        <v>0.1020903466071009</v>
+        <v>2.3432332198847733E-3</v>
       </c>
       <c r="O107">
         <f t="shared" si="17"/>
-        <v>0.89790965339289919</v>
+        <v>3.9670341242597315E-2</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
@@ -15250,11 +15250,11 @@
       </c>
       <c r="N108">
         <f t="shared" si="16"/>
-        <v>0.10781158482220013</v>
+        <v>2.4290295730232344E-3</v>
       </c>
       <c r="O108">
         <f t="shared" si="17"/>
-        <v>0.89218841517780001</v>
+        <v>3.8692466038649648E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
@@ -15299,11 +15299,11 @@
       </c>
       <c r="N109">
         <f t="shared" si="16"/>
-        <v>0.10367829677439289</v>
+        <v>2.2890840049409685E-3</v>
       </c>
       <c r="O109">
         <f t="shared" si="17"/>
-        <v>0.89632170322560711</v>
+        <v>3.8092567636674395E-2</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
@@ -15348,11 +15348,11 @@
       </c>
       <c r="N110">
         <f t="shared" si="16"/>
-        <v>0.10104759977444777</v>
+        <v>2.1942604159058462E-3</v>
       </c>
       <c r="O110">
         <f t="shared" si="17"/>
-        <v>0.89895240022555234</v>
+        <v>3.7575201752750878E-2</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
@@ -15397,11 +15397,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="16"/>
-        <v>9.022872936086837E-2</v>
+        <v>1.9205998470609145E-3</v>
       </c>
       <c r="O111">
         <f t="shared" si="17"/>
-        <v>0.90977127063913155</v>
+        <v>3.7275778717005922E-2</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
@@ -15446,11 +15446,11 @@
       </c>
       <c r="N112">
         <f t="shared" si="16"/>
-        <v>9.7488839201465075E-2</v>
+        <v>2.065585557167481E-3</v>
       </c>
       <c r="O112">
         <f t="shared" si="17"/>
-        <v>0.90251116079853499</v>
+        <v>3.6808093926286367E-2</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
@@ -15495,11 +15495,11 @@
       </c>
       <c r="N113">
         <f t="shared" si="16"/>
-        <v>8.2496454228191865E-2</v>
+        <v>1.6767693250310256E-3</v>
       </c>
       <c r="O113">
         <f t="shared" si="17"/>
-        <v>0.91750354577180815</v>
+        <v>3.5896181073992353E-2</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
@@ -15544,11 +15544,11 @@
       </c>
       <c r="N114">
         <f t="shared" si="16"/>
-        <v>7.7824271382129037E-2</v>
+        <v>1.5443448629824336E-3</v>
       </c>
       <c r="O114">
         <f t="shared" si="17"/>
-        <v>0.92217572861787089</v>
+        <v>3.5224543234053406E-2</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
@@ -15593,11 +15593,11 @@
       </c>
       <c r="N115">
         <f t="shared" si="16"/>
-        <v>9.2863530295734617E-2</v>
+        <v>1.8715553251151939E-3</v>
       </c>
       <c r="O115">
         <f t="shared" si="17"/>
-        <v>0.90713646970426542</v>
+        <v>3.5191077585541748E-2</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
@@ -15642,11 +15642,11 @@
       </c>
       <c r="N116">
         <f t="shared" si="16"/>
-        <v>7.9985285186960658E-2</v>
+        <v>1.5584197820262373E-3</v>
       </c>
       <c r="O116">
         <f t="shared" si="17"/>
-        <v>0.9200147148130392</v>
+        <v>3.4504170127801978E-2</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
@@ -15691,11 +15691,11 @@
       </c>
       <c r="N117">
         <f t="shared" si="16"/>
-        <v>8.6097632809135807E-2</v>
+        <v>1.6854428830330936E-3</v>
       </c>
       <c r="O117">
         <f t="shared" si="17"/>
-        <v>0.91390236719086415</v>
+        <v>3.4436982427903912E-2</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
@@ -15740,11 +15740,11 @@
       </c>
       <c r="N118">
         <f t="shared" si="16"/>
-        <v>8.3786585940575406E-2</v>
+        <v>1.6104965162658884E-3</v>
       </c>
       <c r="O118">
         <f t="shared" si="17"/>
-        <v>0.91621341405942469</v>
+        <v>3.3898805822366006E-2</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
@@ -15789,11 +15789,11 @@
       </c>
       <c r="N119">
         <f t="shared" si="16"/>
-        <v>8.7908131960686198E-2</v>
+        <v>1.6554543873082053E-3</v>
       </c>
       <c r="O119">
         <f t="shared" si="17"/>
-        <v>0.91209186803931375</v>
+        <v>3.3062006704373433E-2</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.15">
@@ -15838,11 +15838,11 @@
       </c>
       <c r="N120">
         <f t="shared" si="16"/>
-        <v>8.10361534780943E-2</v>
+        <v>1.503227121185268E-3</v>
       </c>
       <c r="O120">
         <f t="shared" si="17"/>
-        <v>0.91896384652190566</v>
+        <v>3.281305515358194E-2</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
@@ -15887,11 +15887,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="16"/>
-        <v>8.315941458682434E-2</v>
+        <v>1.4922041542301452E-3</v>
       </c>
       <c r="O121">
         <f t="shared" si="17"/>
-        <v>0.9168405854131757</v>
+        <v>3.1667451152898665E-2</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
@@ -15936,11 +15936,11 @@
       </c>
       <c r="N122">
         <f t="shared" si="16"/>
-        <v>8.9786194300782524E-2</v>
+        <v>1.6315647497150629E-3</v>
       </c>
       <c r="O122">
         <f t="shared" si="17"/>
-        <v>0.9102138056992175</v>
+        <v>3.1837622317240223E-2</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
@@ -15985,11 +15985,11 @@
       </c>
       <c r="N123">
         <f t="shared" si="16"/>
-        <v>7.7679311196926171E-2</v>
+        <v>1.3677077763971481E-3</v>
       </c>
       <c r="O123">
         <f t="shared" si="17"/>
-        <v>0.92232068880307383</v>
+        <v>3.125880411886553E-2</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
@@ -16034,11 +16034,11 @@
       </c>
       <c r="N124">
         <f t="shared" si="16"/>
-        <v>8.007276808385054E-2</v>
+        <v>1.4077997021166527E-3</v>
       </c>
       <c r="O124">
         <f t="shared" si="17"/>
-        <v>0.91992723191614945</v>
+        <v>3.1132354006247309E-2</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
@@ -16083,11 +16083,11 @@
       </c>
       <c r="N125">
         <f t="shared" si="16"/>
-        <v>7.0676339955264095E-2</v>
+        <v>1.1983232284881794E-3</v>
       </c>
       <c r="O125">
         <f t="shared" si="17"/>
-        <v>0.92932366004473588</v>
+        <v>3.0329788314191489E-2</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
@@ -16132,11 +16132,11 @@
       </c>
       <c r="N126">
         <f t="shared" si="16"/>
-        <v>6.3695720910292672E-2</v>
+        <v>1.0801817329496959E-3</v>
       </c>
       <c r="O126">
         <f t="shared" si="17"/>
-        <v>0.93630427908970726</v>
+        <v>3.0563707706221101E-2</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.15">
@@ -16181,11 +16181,11 @@
       </c>
       <c r="N127">
         <f t="shared" si="16"/>
-        <v>7.2032844947552133E-2</v>
+        <v>1.1977360283354404E-3</v>
       </c>
       <c r="O127">
         <f t="shared" si="17"/>
-        <v>0.92796715505244798</v>
+        <v>2.9700626401538907E-2</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
@@ -16230,11 +16230,11 @@
       </c>
       <c r="N128">
         <f t="shared" si="16"/>
-        <v>7.0842585380409315E-2</v>
+        <v>1.168151180856567E-3</v>
       </c>
       <c r="O128">
         <f t="shared" si="17"/>
-        <v>0.92915741461959067</v>
+        <v>2.9491468961305466E-2</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="N129">
         <f t="shared" si="16"/>
-        <v>7.6341811716130567E-2</v>
+        <v>1.2524771856367582E-3</v>
       </c>
       <c r="O129">
         <f t="shared" si="17"/>
-        <v>0.92365818828386936</v>
+        <v>2.9168970708769865E-2</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
@@ -16328,11 +16328,11 @@
       </c>
       <c r="N130">
         <f t="shared" si="16"/>
-        <v>6.9552209114437352E-2</v>
+        <v>1.1252866640434078E-3</v>
       </c>
       <c r="O130">
         <f t="shared" si="17"/>
-        <v>0.93044779088556262</v>
+        <v>2.8976552294614013E-2</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
@@ -16377,11 +16377,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="16"/>
-        <v>6.2563892247486944E-2</v>
+        <v>9.9371221264073781E-4</v>
       </c>
       <c r="O131">
         <f t="shared" si="17"/>
-        <v>0.93743610775251307</v>
+        <v>2.8660317921192845E-2</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
@@ -16425,12 +16425,12 @@
         <v>0.98992151885345003</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N143" si="25">C132/SUM(C132:D132)</f>
-        <v>5.504747526860581E-2</v>
+        <f t="shared" ref="N132:N143" si="25">C132/$C$2</f>
+        <v>8.4301887095812567E-4</v>
       </c>
       <c r="O132">
-        <f t="shared" ref="O132:O143" si="26">D132/SUM(C132:D132)</f>
-        <v>0.94495252473139413</v>
+        <f t="shared" ref="O132:O143" si="26">D132/$D$2</f>
+        <v>2.7855588574314805E-2</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
@@ -16475,11 +16475,11 @@
       </c>
       <c r="N133">
         <f t="shared" si="25"/>
-        <v>5.3496535980441039E-2</v>
+        <v>8.0622300545769854E-4</v>
       </c>
       <c r="O133">
         <f t="shared" si="26"/>
-        <v>0.94650346401955887</v>
+        <v>2.745707000950301E-2</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.15">
@@ -16524,11 +16524,11 @@
       </c>
       <c r="N134">
         <f t="shared" si="25"/>
-        <v>5.936283963583739E-2</v>
+        <v>9.0126670969547173E-4</v>
       </c>
       <c r="O134">
         <f t="shared" si="26"/>
-        <v>0.94063716036416267</v>
+        <v>2.7489272874435575E-2</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
@@ -16573,11 +16573,11 @@
       </c>
       <c r="N135">
         <f t="shared" si="25"/>
-        <v>6.8052933621224457E-2</v>
+        <v>1.0378059074015566E-3</v>
       </c>
       <c r="O135">
         <f t="shared" si="26"/>
-        <v>0.93194706637877556</v>
+        <v>2.7356654828539672E-2</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.15">
@@ -16622,11 +16622,11 @@
       </c>
       <c r="N136">
         <f t="shared" si="25"/>
-        <v>7.7029354681344114E-2</v>
+        <v>1.1723765487646172E-3</v>
       </c>
       <c r="O136">
         <f t="shared" si="26"/>
-        <v>0.9229706453186558</v>
+        <v>2.703965897413594E-2</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.15">
@@ -16671,11 +16671,11 @@
       </c>
       <c r="N137">
         <f t="shared" si="25"/>
-        <v>6.7939196843630867E-2</v>
+        <v>1.0175123540600312E-3</v>
       </c>
       <c r="O137">
         <f t="shared" si="26"/>
-        <v>0.93206080315636908</v>
+        <v>2.6869895980786207E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
@@ -16720,11 +16720,11 @@
       </c>
       <c r="N138">
         <f t="shared" si="25"/>
-        <v>7.3027544442832368E-2</v>
+        <v>1.0890007641538959E-3</v>
       </c>
       <c r="O138">
         <f t="shared" si="26"/>
-        <v>0.92697245555716767</v>
+        <v>2.6607910713490224E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.15">
@@ -16769,11 +16769,11 @@
       </c>
       <c r="N139">
         <f t="shared" si="25"/>
-        <v>7.100761184818255E-2</v>
+        <v>1.031547660649714E-3</v>
       </c>
       <c r="O139">
         <f t="shared" si="26"/>
-        <v>0.92899238815181751</v>
+        <v>2.5977598827774274E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.15">
@@ -16818,11 +16818,11 @@
       </c>
       <c r="N140">
         <f t="shared" si="25"/>
-        <v>5.9192262863297089E-2</v>
+        <v>8.3355409235501266E-4</v>
       </c>
       <c r="O140">
         <f t="shared" si="26"/>
-        <v>0.94080773713670296</v>
+        <v>2.5501879166991297E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.15">
@@ -16867,11 +16867,11 @@
       </c>
       <c r="N141">
         <f t="shared" si="25"/>
-        <v>6.3580667817872458E-2</v>
+        <v>9.0019996148060072E-4</v>
       </c>
       <c r="O141">
         <f t="shared" si="26"/>
-        <v>0.93641933218212758</v>
+        <v>2.5520356335884859E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.15">
@@ -16916,11 +16916,11 @@
       </c>
       <c r="N142">
         <f t="shared" si="25"/>
-        <v>4.3055911767232585E-2</v>
+        <v>5.8614784836813624E-4</v>
       </c>
       <c r="O142">
         <f t="shared" si="26"/>
-        <v>0.95694408823276733</v>
+        <v>2.5076297103154104E-2</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.15">
@@ -16965,11 +16965,11 @@
       </c>
       <c r="N143">
         <f t="shared" si="25"/>
-        <v>4.861927525858456E-2</v>
+        <v>6.7076086945283987E-4</v>
       </c>
       <c r="O143">
         <f t="shared" si="26"/>
-        <v>0.95138072474141533</v>
+        <v>2.5264810473467913E-2</v>
       </c>
     </row>
   </sheetData>
